--- a/raw_data/20200818_saline/20200818_Sensor1_Test_92.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_92.xlsx
@@ -1,553 +1,969 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DD0562-DF03-4E79-8005-0367CDF0B5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>82087.371319</v>
+        <v>82087.371318999998</v>
       </c>
       <c r="B2" s="1">
-        <v>22.802048</v>
+        <v>22.802047999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>908.840000</v>
+        <v>908.84</v>
       </c>
       <c r="D2" s="1">
-        <v>-202.864000</v>
+        <v>-202.864</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>82097.774442</v>
+        <v>82097.774441999994</v>
       </c>
       <c r="G2" s="1">
-        <v>22.804937</v>
+        <v>22.804936999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>926.276000</v>
+        <v>926.27599999999995</v>
       </c>
       <c r="I2" s="1">
-        <v>-172.092000</v>
+        <v>-172.09200000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>82108.246939</v>
+        <v>82108.246939000004</v>
       </c>
       <c r="L2" s="1">
-        <v>22.807846</v>
+        <v>22.807846000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>950.419000</v>
+        <v>950.41899999999998</v>
       </c>
       <c r="N2" s="1">
-        <v>-121.954000</v>
+        <v>-121.95399999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>82119.393533</v>
+        <v>82119.393532999995</v>
       </c>
       <c r="Q2" s="1">
-        <v>22.810943</v>
+        <v>22.810943000000002</v>
       </c>
       <c r="R2" s="1">
-        <v>957.416000</v>
+        <v>957.41600000000005</v>
       </c>
       <c r="S2" s="1">
-        <v>-105.430000</v>
+        <v>-105.43</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>82129.681055</v>
+        <v>82129.681054999994</v>
       </c>
       <c r="V2" s="1">
-        <v>22.813800</v>
+        <v>22.813800000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>964.374000</v>
+        <v>964.37400000000002</v>
       </c>
       <c r="X2" s="1">
-        <v>-90.085700</v>
+        <v>-90.085700000000003</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>82140.106002</v>
@@ -556,285 +972,285 @@
         <v>22.816696</v>
       </c>
       <c r="AB2" s="1">
-        <v>971.693000</v>
+        <v>971.69299999999998</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.946800</v>
+        <v>-77.946799999999996</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>82150.989187</v>
+        <v>82150.989186999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>22.819719</v>
+        <v>22.819718999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>976.398000</v>
+        <v>976.39800000000002</v>
       </c>
       <c r="AH2" s="1">
-        <v>-75.495400</v>
+        <v>-75.495400000000004</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>82161.414133</v>
+        <v>82161.414132999998</v>
       </c>
       <c r="AK2" s="1">
-        <v>22.822615</v>
+        <v>22.822614999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>983.783000</v>
+        <v>983.78300000000002</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.866300</v>
+        <v>-79.866299999999995</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>82172.319144</v>
+        <v>82172.319143999994</v>
       </c>
       <c r="AP2" s="1">
         <v>22.825644</v>
       </c>
       <c r="AQ2" s="1">
-        <v>991.915000</v>
+        <v>991.91499999999996</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.113100</v>
+        <v>-91.113100000000003</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>82182.685044</v>
+        <v>82182.685043999998</v>
       </c>
       <c r="AU2" s="1">
-        <v>22.828524</v>
+        <v>22.828524000000002</v>
       </c>
       <c r="AV2" s="1">
-        <v>1001.830000</v>
+        <v>1001.83</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.463000</v>
+        <v>-108.46299999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>82193.476027</v>
+        <v>82193.476026999997</v>
       </c>
       <c r="AZ2" s="1">
-        <v>22.831521</v>
+        <v>22.831520999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1010.120000</v>
+        <v>1010.12</v>
       </c>
       <c r="BB2" s="1">
-        <v>-123.901000</v>
+        <v>-123.901</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>82204.507516</v>
+        <v>82204.507515999998</v>
       </c>
       <c r="BE2" s="1">
-        <v>22.834585</v>
+        <v>22.834585000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1048.930000</v>
+        <v>1048.93</v>
       </c>
       <c r="BG2" s="1">
-        <v>-194.824000</v>
+        <v>-194.82400000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>82215.200270</v>
+        <v>82215.200270000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>22.837556</v>
+        <v>22.837555999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1115.810000</v>
+        <v>1115.81</v>
       </c>
       <c r="BL2" s="1">
-        <v>-309.471000</v>
+        <v>-309.471</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>82225.860785</v>
+        <v>82225.860784999997</v>
       </c>
       <c r="BO2" s="1">
-        <v>22.840517</v>
+        <v>22.840516999999998</v>
       </c>
       <c r="BP2" s="1">
-        <v>1224.170000</v>
+        <v>1224.17</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-489.035000</v>
+        <v>-489.03500000000003</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>82238.139247</v>
+        <v>82238.139246999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>22.843928</v>
+        <v>22.843927999999998</v>
       </c>
       <c r="BU2" s="1">
-        <v>1345.150000</v>
+        <v>1345.15</v>
       </c>
       <c r="BV2" s="1">
-        <v>-685.113000</v>
+        <v>-685.11300000000006</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>82248.815635</v>
+        <v>82248.815635000006</v>
       </c>
       <c r="BY2" s="1">
-        <v>22.846893</v>
+        <v>22.846893000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1480.150000</v>
+        <v>1480.15</v>
       </c>
       <c r="CA2" s="1">
-        <v>-892.840000</v>
+        <v>-892.84</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>82259.442915</v>
+        <v>82259.442915000007</v>
       </c>
       <c r="CD2" s="1">
-        <v>22.849845</v>
+        <v>22.849844999999998</v>
       </c>
       <c r="CE2" s="1">
-        <v>1830.200000</v>
+        <v>1830.2</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1385.400000</v>
+        <v>-1385.4</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>82087.752743</v>
+        <v>82087.752743000005</v>
       </c>
       <c r="B3" s="1">
-        <v>22.802154</v>
+        <v>22.802154000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>908.687000</v>
+        <v>908.68700000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-202.817000</v>
+        <v>-202.81700000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>82098.499561</v>
+        <v>82098.499561000004</v>
       </c>
       <c r="G3" s="1">
         <v>22.805139</v>
       </c>
       <c r="H3" s="1">
-        <v>926.499000</v>
+        <v>926.49900000000002</v>
       </c>
       <c r="I3" s="1">
-        <v>-171.928000</v>
+        <v>-171.928</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>82108.965147</v>
+        <v>82108.965146999995</v>
       </c>
       <c r="L3" s="1">
-        <v>22.808046</v>
+        <v>22.808046000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>950.500000</v>
+        <v>950.5</v>
       </c>
       <c r="N3" s="1">
-        <v>-121.943000</v>
+        <v>-121.943</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>82119.736796</v>
+        <v>82119.736795999997</v>
       </c>
       <c r="Q3" s="1">
         <v>22.811038</v>
       </c>
       <c r="R3" s="1">
-        <v>957.391000</v>
+        <v>957.39099999999996</v>
       </c>
       <c r="S3" s="1">
-        <v>-105.430000</v>
+        <v>-105.43</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>82130.024288</v>
+        <v>82130.024288000001</v>
       </c>
       <c r="V3" s="1">
         <v>22.813896</v>
       </c>
       <c r="W3" s="1">
-        <v>964.192000</v>
+        <v>964.19200000000001</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.093800</v>
+        <v>-90.093800000000002</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>82140.459121</v>
+        <v>82140.459121000007</v>
       </c>
       <c r="AA3" s="1">
-        <v>22.816794</v>
+        <v>22.816794000000002</v>
       </c>
       <c r="AB3" s="1">
-        <v>971.647000</v>
+        <v>971.64700000000005</v>
       </c>
       <c r="AC3" s="1">
-        <v>-78.062300</v>
+        <v>-78.062299999999993</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>82151.656306</v>
+        <v>82151.656306000004</v>
       </c>
       <c r="AF3" s="1">
-        <v>22.819905</v>
+        <v>22.819904999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>976.468000</v>
+        <v>976.46799999999996</v>
       </c>
       <c r="AH3" s="1">
-        <v>-75.378900</v>
+        <v>-75.378900000000002</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>82162.125365</v>
@@ -843,2207 +1259,2207 @@
         <v>22.822813</v>
       </c>
       <c r="AL3" s="1">
-        <v>983.778000</v>
+        <v>983.77800000000002</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.870700</v>
+        <v>-79.870699999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>82172.742262</v>
       </c>
       <c r="AP3" s="1">
-        <v>22.825762</v>
+        <v>22.825762000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>991.924000</v>
+        <v>991.92399999999998</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.126200</v>
+        <v>-91.126199999999997</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>82183.069930</v>
+        <v>82183.069929999998</v>
       </c>
       <c r="AU3" s="1">
-        <v>22.828631</v>
+        <v>22.828631000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1001.820000</v>
+        <v>1001.82</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.467000</v>
+        <v>-108.467</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>82193.837578</v>
+        <v>82193.837578000006</v>
       </c>
       <c r="AZ3" s="1">
-        <v>22.831622</v>
+        <v>22.831621999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1010.160000</v>
+        <v>1010.16</v>
       </c>
       <c r="BB3" s="1">
-        <v>-123.910000</v>
+        <v>-123.91</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>82204.897373</v>
       </c>
       <c r="BE3" s="1">
-        <v>22.834694</v>
+        <v>22.834693999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1048.930000</v>
+        <v>1048.93</v>
       </c>
       <c r="BG3" s="1">
-        <v>-194.845000</v>
+        <v>-194.845</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>82215.585166</v>
+        <v>82215.585166000004</v>
       </c>
       <c r="BJ3" s="1">
-        <v>22.837663</v>
+        <v>22.837662999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1115.830000</v>
+        <v>1115.83</v>
       </c>
       <c r="BL3" s="1">
-        <v>-309.485000</v>
+        <v>-309.48500000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>82226.296308</v>
+        <v>82226.296308000005</v>
       </c>
       <c r="BO3" s="1">
-        <v>22.840638</v>
+        <v>22.840637999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1224.120000</v>
+        <v>1224.1199999999999</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-489.071000</v>
+        <v>-489.07100000000003</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>82238.273665</v>
+        <v>82238.273665000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>22.843965</v>
+        <v>22.843965000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1345.200000</v>
+        <v>1345.2</v>
       </c>
       <c r="BV3" s="1">
-        <v>-685.237000</v>
+        <v>-685.23699999999997</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>82248.970400</v>
+        <v>82248.970400000006</v>
       </c>
       <c r="BY3" s="1">
-        <v>22.846936</v>
+        <v>22.846935999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1480.120000</v>
+        <v>1480.12</v>
       </c>
       <c r="CA3" s="1">
-        <v>-892.860000</v>
+        <v>-892.86</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>82260.003395</v>
+        <v>82260.003395000007</v>
       </c>
       <c r="CD3" s="1">
-        <v>22.850001</v>
+        <v>22.850000999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1830.570000</v>
+        <v>1830.57</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1384.140000</v>
+        <v>-1384.14</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>82088.424325</v>
       </c>
       <c r="B4" s="1">
-        <v>22.802340</v>
+        <v>22.802340000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>908.712000</v>
+        <v>908.71199999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-202.657000</v>
+        <v>-202.65700000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>82098.843287</v>
+        <v>82098.843286999996</v>
       </c>
       <c r="G4" s="1">
-        <v>22.805234</v>
+        <v>22.805233999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>926.551000</v>
+        <v>926.55100000000004</v>
       </c>
       <c r="I4" s="1">
-        <v>-171.640000</v>
+        <v>-171.64</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>82109.311852</v>
+        <v>82109.311851999999</v>
       </c>
       <c r="L4" s="1">
         <v>22.808142</v>
       </c>
       <c r="M4" s="1">
-        <v>950.621000</v>
+        <v>950.62099999999998</v>
       </c>
       <c r="N4" s="1">
-        <v>-121.917000</v>
+        <v>-121.917</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>82120.085453</v>
+        <v>82120.085453000007</v>
       </c>
       <c r="Q4" s="1">
         <v>22.811135</v>
       </c>
       <c r="R4" s="1">
-        <v>957.402000</v>
+        <v>957.40200000000004</v>
       </c>
       <c r="S4" s="1">
-        <v>-105.372000</v>
+        <v>-105.372</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>82130.695374</v>
+        <v>82130.695374000003</v>
       </c>
       <c r="V4" s="1">
-        <v>22.814082</v>
+        <v>22.814081999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>964.291000</v>
+        <v>964.29100000000005</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.043200</v>
+        <v>-90.043199999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>82141.121281</v>
       </c>
       <c r="AA4" s="1">
-        <v>22.816978</v>
+        <v>22.816977999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>971.654000</v>
+        <v>971.654</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.983800</v>
+        <v>-77.983800000000002</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>82152.027346</v>
+        <v>82152.027346000003</v>
       </c>
       <c r="AF4" s="1">
-        <v>22.820008</v>
+        <v>22.820008000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>976.460000</v>
+        <v>976.46</v>
       </c>
       <c r="AH4" s="1">
-        <v>-75.597800</v>
+        <v>-75.597800000000007</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>82162.501828</v>
+        <v>82162.501827999993</v>
       </c>
       <c r="AK4" s="1">
         <v>22.822917</v>
       </c>
       <c r="AL4" s="1">
-        <v>983.760000</v>
+        <v>983.76</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.852100</v>
+        <v>-79.852099999999993</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>82173.101830</v>
+        <v>82173.10183</v>
       </c>
       <c r="AP4" s="1">
-        <v>22.825862</v>
+        <v>22.825862000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>991.944000</v>
+        <v>991.94399999999996</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.127100</v>
+        <v>-91.127099999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>82183.434488</v>
+        <v>82183.434487999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>22.828732</v>
+        <v>22.828731999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1001.810000</v>
+        <v>1001.81</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.447000</v>
+        <v>-108.447</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>82194.194698</v>
+        <v>82194.194698000007</v>
       </c>
       <c r="AZ4" s="1">
-        <v>22.831721</v>
+        <v>22.831721000000002</v>
       </c>
       <c r="BA4" s="1">
-        <v>1010.130000</v>
+        <v>1010.13</v>
       </c>
       <c r="BB4" s="1">
-        <v>-123.910000</v>
+        <v>-123.91</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>82205.328911</v>
+        <v>82205.328911000004</v>
       </c>
       <c r="BE4" s="1">
-        <v>22.834814</v>
+        <v>22.834814000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1048.920000</v>
+        <v>1048.92</v>
       </c>
       <c r="BG4" s="1">
-        <v>-194.830000</v>
+        <v>-194.83</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>82216.057890</v>
+        <v>82216.057889999996</v>
       </c>
       <c r="BJ4" s="1">
-        <v>22.837794</v>
+        <v>22.837793999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1115.820000</v>
+        <v>1115.82</v>
       </c>
       <c r="BL4" s="1">
-        <v>-309.491000</v>
+        <v>-309.49099999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>82226.706959</v>
+        <v>82226.706959000003</v>
       </c>
       <c r="BO4" s="1">
-        <v>22.840752</v>
+        <v>22.840751999999998</v>
       </c>
       <c r="BP4" s="1">
-        <v>1224.170000</v>
+        <v>1224.17</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-489.025000</v>
+        <v>-489.02499999999998</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>82238.684847</v>
+        <v>82238.684846999997</v>
       </c>
       <c r="BT4" s="1">
-        <v>22.844079</v>
+        <v>22.844079000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1345.230000</v>
+        <v>1345.23</v>
       </c>
       <c r="BV4" s="1">
-        <v>-685.299000</v>
+        <v>-685.29899999999998</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>82249.392481</v>
+        <v>82249.392481000003</v>
       </c>
       <c r="BY4" s="1">
-        <v>22.847053</v>
+        <v>22.847052999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1480.170000</v>
+        <v>1480.17</v>
       </c>
       <c r="CA4" s="1">
-        <v>-892.815000</v>
+        <v>-892.81500000000005</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>82260.521714</v>
+        <v>82260.521714000002</v>
       </c>
       <c r="CD4" s="1">
-        <v>22.850145</v>
+        <v>22.850145000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1829.090000</v>
+        <v>1829.09</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1384.700000</v>
+        <v>-1384.7</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>82088.774997</v>
       </c>
       <c r="B5" s="1">
-        <v>22.802437</v>
+        <v>22.802437000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>908.729000</v>
+        <v>908.72900000000004</v>
       </c>
       <c r="D5" s="1">
-        <v>-202.708000</v>
+        <v>-202.708</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>82099.188039</v>
+        <v>82099.188039000001</v>
       </c>
       <c r="G5" s="1">
-        <v>22.805330</v>
+        <v>22.805330000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>926.616000</v>
+        <v>926.61599999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-171.279000</v>
+        <v>-171.279</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>82109.658090</v>
+        <v>82109.658089999997</v>
       </c>
       <c r="L5" s="1">
-        <v>22.808238</v>
+        <v>22.808237999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>950.414000</v>
+        <v>950.41399999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-122.066000</v>
+        <v>-122.066</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>82120.748603</v>
       </c>
       <c r="Q5" s="1">
-        <v>22.811319</v>
+        <v>22.811319000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>957.469000</v>
+        <v>957.46900000000005</v>
       </c>
       <c r="S5" s="1">
-        <v>-105.389000</v>
+        <v>-105.389</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>82131.066381</v>
+        <v>82131.066380999997</v>
       </c>
       <c r="V5" s="1">
-        <v>22.814185</v>
+        <v>22.814184999999998</v>
       </c>
       <c r="W5" s="1">
-        <v>964.271000</v>
+        <v>964.27099999999996</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.014500</v>
+        <v>-90.014499999999998</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>82141.503695</v>
+        <v>82141.503695000007</v>
       </c>
       <c r="AA5" s="1">
-        <v>22.817084</v>
+        <v>22.817084000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>971.641000</v>
+        <v>971.64099999999996</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.951200</v>
+        <v>-77.9512</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>82152.372561</v>
+        <v>82152.372560999996</v>
       </c>
       <c r="AF5" s="1">
         <v>22.820103</v>
       </c>
       <c r="AG5" s="1">
-        <v>976.441000</v>
+        <v>976.44100000000003</v>
       </c>
       <c r="AH5" s="1">
-        <v>-75.631400</v>
+        <v>-75.631399999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>82162.847539</v>
+        <v>82162.847538999995</v>
       </c>
       <c r="AK5" s="1">
         <v>22.823013</v>
       </c>
       <c r="AL5" s="1">
-        <v>983.789000</v>
+        <v>983.78899999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.868100</v>
+        <v>-79.868099999999998</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>82173.460933</v>
+        <v>82173.460932999995</v>
       </c>
       <c r="AP5" s="1">
         <v>22.825961</v>
       </c>
       <c r="AQ5" s="1">
-        <v>991.944000</v>
+        <v>991.94399999999996</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.139600</v>
+        <v>-91.139600000000002</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>82183.862535</v>
+        <v>82183.862534999993</v>
       </c>
       <c r="AU5" s="1">
         <v>22.828851</v>
       </c>
       <c r="AV5" s="1">
-        <v>1001.810000</v>
+        <v>1001.81</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.467000</v>
+        <v>-108.467</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>82194.622746</v>
+        <v>82194.622745999994</v>
       </c>
       <c r="AZ5" s="1">
-        <v>22.831840</v>
+        <v>22.83184</v>
       </c>
       <c r="BA5" s="1">
-        <v>1010.150000</v>
+        <v>1010.15</v>
       </c>
       <c r="BB5" s="1">
-        <v>-123.907000</v>
+        <v>-123.907</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>82205.621531</v>
+        <v>82205.621530999997</v>
       </c>
       <c r="BE5" s="1">
-        <v>22.834895</v>
+        <v>22.834894999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1048.930000</v>
+        <v>1048.93</v>
       </c>
       <c r="BG5" s="1">
-        <v>-194.842000</v>
+        <v>-194.84200000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>82216.335613</v>
+        <v>82216.335613000003</v>
       </c>
       <c r="BJ5" s="1">
         <v>22.837871</v>
       </c>
       <c r="BK5" s="1">
-        <v>1115.830000</v>
+        <v>1115.83</v>
       </c>
       <c r="BL5" s="1">
-        <v>-309.487000</v>
+        <v>-309.48700000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>82227.101774</v>
+        <v>82227.101773999995</v>
       </c>
       <c r="BO5" s="1">
-        <v>22.840862</v>
+        <v>22.840862000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1224.160000</v>
+        <v>1224.1600000000001</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-489.071000</v>
+        <v>-489.07100000000003</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>82239.112434</v>
+        <v>82239.112433999995</v>
       </c>
       <c r="BT5" s="1">
-        <v>22.844198</v>
+        <v>22.844197999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1345.300000</v>
+        <v>1345.3</v>
       </c>
       <c r="BV5" s="1">
-        <v>-685.283000</v>
+        <v>-685.28300000000002</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>82249.812097</v>
+        <v>82249.812097000002</v>
       </c>
       <c r="BY5" s="1">
-        <v>22.847170</v>
+        <v>22.847169999999998</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1480.150000</v>
+        <v>1480.15</v>
       </c>
       <c r="CA5" s="1">
-        <v>-892.857000</v>
+        <v>-892.85699999999997</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>82261.060369</v>
+        <v>82261.060368999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>22.850295</v>
+        <v>22.850294999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1830.260000</v>
+        <v>1830.26</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1385.250000</v>
+        <v>-1385.25</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>82089.117238</v>
+        <v>82089.117238000006</v>
       </c>
       <c r="B6" s="1">
         <v>22.802533</v>
       </c>
       <c r="C6" s="1">
-        <v>908.791000</v>
+        <v>908.79100000000005</v>
       </c>
       <c r="D6" s="1">
-        <v>-202.837000</v>
+        <v>-202.83699999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>82099.849670</v>
+        <v>82099.849669999996</v>
       </c>
       <c r="G6" s="1">
-        <v>22.805514</v>
+        <v>22.805513999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>926.889000</v>
+        <v>926.88900000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-171.382000</v>
+        <v>-171.38200000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>82110.329174</v>
+        <v>82110.329173999999</v>
       </c>
       <c r="L6" s="1">
         <v>22.808425</v>
       </c>
       <c r="M6" s="1">
-        <v>950.558000</v>
+        <v>950.55799999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-122.037000</v>
+        <v>-122.03700000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>82121.129067</v>
+        <v>82121.129067000002</v>
       </c>
       <c r="Q6" s="1">
         <v>22.811425</v>
       </c>
       <c r="R6" s="1">
-        <v>957.468000</v>
+        <v>957.46799999999996</v>
       </c>
       <c r="S6" s="1">
-        <v>-105.431000</v>
+        <v>-105.431</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>82131.411640</v>
+        <v>82131.411640000006</v>
       </c>
       <c r="V6" s="1">
-        <v>22.814281</v>
+        <v>22.814281000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>964.229000</v>
+        <v>964.22900000000004</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.057100</v>
+        <v>-90.057100000000005</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>82141.851887</v>
+        <v>82141.851886999997</v>
       </c>
       <c r="AA6" s="1">
-        <v>22.817181</v>
+        <v>22.817181000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>971.687000</v>
+        <v>971.68700000000001</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.958000</v>
+        <v>-77.957999999999998</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>82152.720721</v>
+        <v>82152.720721000005</v>
       </c>
       <c r="AF6" s="1">
-        <v>22.820200</v>
+        <v>22.8202</v>
       </c>
       <c r="AG6" s="1">
-        <v>976.354000</v>
+        <v>976.35400000000004</v>
       </c>
       <c r="AH6" s="1">
-        <v>-75.517200</v>
+        <v>-75.517200000000003</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>82163.197219</v>
+        <v>82163.197218999994</v>
       </c>
       <c r="AK6" s="1">
-        <v>22.823110</v>
+        <v>22.82311</v>
       </c>
       <c r="AL6" s="1">
-        <v>983.762000</v>
+        <v>983.76199999999994</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.873100</v>
+        <v>-79.873099999999994</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>82173.890470</v>
+        <v>82173.890469999998</v>
       </c>
       <c r="AP6" s="1">
-        <v>22.826081</v>
+        <v>22.826080999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>991.937000</v>
+        <v>991.93700000000001</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.123500</v>
+        <v>-91.123500000000007</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>82184.160168</v>
+        <v>82184.160168000002</v>
       </c>
       <c r="AU6" s="1">
-        <v>22.828933</v>
+        <v>22.828932999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1001.840000</v>
+        <v>1001.84</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.459000</v>
+        <v>-108.459</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>82194.913402</v>
+        <v>82194.913402000006</v>
       </c>
       <c r="AZ6" s="1">
-        <v>22.831920</v>
+        <v>22.83192</v>
       </c>
       <c r="BA6" s="1">
-        <v>1010.140000</v>
+        <v>1010.14</v>
       </c>
       <c r="BB6" s="1">
-        <v>-123.901000</v>
+        <v>-123.901</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>82205.977162</v>
+        <v>82205.977161999996</v>
       </c>
       <c r="BE6" s="1">
-        <v>22.834994</v>
+        <v>22.834993999999998</v>
       </c>
       <c r="BF6" s="1">
-        <v>1048.930000</v>
+        <v>1048.93</v>
       </c>
       <c r="BG6" s="1">
-        <v>-194.844000</v>
+        <v>-194.84399999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>82216.710092</v>
+        <v>82216.710091999994</v>
       </c>
       <c r="BJ6" s="1">
         <v>22.837975</v>
       </c>
       <c r="BK6" s="1">
-        <v>1115.840000</v>
+        <v>1115.8399999999999</v>
       </c>
       <c r="BL6" s="1">
-        <v>-309.478000</v>
+        <v>-309.47800000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>82227.525893</v>
+        <v>82227.525892999998</v>
       </c>
       <c r="BO6" s="1">
-        <v>22.840979</v>
+        <v>22.840979000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1224.150000</v>
+        <v>1224.1500000000001</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-489.068000</v>
+        <v>-489.06799999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>82239.550385</v>
+        <v>82239.550384999995</v>
       </c>
       <c r="BT6" s="1">
-        <v>22.844320</v>
+        <v>22.84432</v>
       </c>
       <c r="BU6" s="1">
-        <v>1345.430000</v>
+        <v>1345.43</v>
       </c>
       <c r="BV6" s="1">
-        <v>-685.378000</v>
+        <v>-685.37800000000004</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>82250.456401</v>
+        <v>82250.456401000003</v>
       </c>
       <c r="BY6" s="1">
-        <v>22.847349</v>
+        <v>22.847349000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1480.230000</v>
+        <v>1480.23</v>
       </c>
       <c r="CA6" s="1">
-        <v>-892.869000</v>
+        <v>-892.86900000000003</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>82261.602033</v>
+        <v>82261.602033000003</v>
       </c>
       <c r="CD6" s="1">
-        <v>22.850445</v>
+        <v>22.850445000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>1829.880000</v>
+        <v>1829.88</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1384.060000</v>
+        <v>-1384.06</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>82089.766997</v>
+        <v>82089.766996999999</v>
       </c>
       <c r="B7" s="1">
-        <v>22.802713</v>
+        <v>22.802713000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>908.683000</v>
+        <v>908.68299999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-202.638000</v>
+        <v>-202.63800000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>82100.221174</v>
+        <v>82100.221174000006</v>
       </c>
       <c r="G7" s="1">
-        <v>22.805617</v>
+        <v>22.805617000000002</v>
       </c>
       <c r="H7" s="1">
-        <v>926.620000</v>
+        <v>926.62</v>
       </c>
       <c r="I7" s="1">
-        <v>-172.150000</v>
+        <v>-172.15</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>82110.696718</v>
+        <v>82110.696718000007</v>
       </c>
       <c r="L7" s="1">
-        <v>22.808527</v>
+        <v>22.808527000000002</v>
       </c>
       <c r="M7" s="1">
-        <v>950.389000</v>
+        <v>950.38900000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-121.883000</v>
+        <v>-121.883</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>82121.478112</v>
+        <v>82121.478111999997</v>
       </c>
       <c r="Q7" s="1">
         <v>22.811522</v>
       </c>
       <c r="R7" s="1">
-        <v>957.426000</v>
+        <v>957.42600000000004</v>
       </c>
       <c r="S7" s="1">
-        <v>-105.451000</v>
+        <v>-105.45099999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>82131.755357</v>
+        <v>82131.755357000002</v>
       </c>
       <c r="V7" s="1">
-        <v>22.814376</v>
+        <v>22.814375999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>964.255000</v>
+        <v>964.255</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.983200</v>
+        <v>-89.983199999999997</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>82142.203054</v>
+        <v>82142.203053999998</v>
       </c>
       <c r="AA7" s="1">
-        <v>22.817279</v>
+        <v>22.817278999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>971.620000</v>
+        <v>971.62</v>
       </c>
       <c r="AC7" s="1">
-        <v>-78.037100</v>
+        <v>-78.037099999999995</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>82153.156742</v>
+        <v>82153.156742000006</v>
       </c>
       <c r="AF7" s="1">
         <v>22.820321</v>
       </c>
       <c r="AG7" s="1">
-        <v>976.519000</v>
+        <v>976.51900000000001</v>
       </c>
       <c r="AH7" s="1">
-        <v>-75.551500</v>
+        <v>-75.551500000000004</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>82163.646131</v>
+        <v>82163.646131000001</v>
       </c>
       <c r="AK7" s="1">
         <v>22.823235</v>
       </c>
       <c r="AL7" s="1">
-        <v>983.782000</v>
+        <v>983.78200000000004</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.838900</v>
+        <v>-79.838899999999995</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>82174.183604</v>
+        <v>82174.183604000005</v>
       </c>
       <c r="AP7" s="1">
         <v>22.826162</v>
       </c>
       <c r="AQ7" s="1">
-        <v>991.932000</v>
+        <v>991.93200000000002</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.116300</v>
+        <v>-91.116299999999995</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>82184.527202</v>
+        <v>82184.527201999997</v>
       </c>
       <c r="AU7" s="1">
-        <v>22.829035</v>
+        <v>22.829035000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1001.820000</v>
+        <v>1001.82</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.456000</v>
+        <v>-108.456</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>82195.272008</v>
       </c>
       <c r="AZ7" s="1">
-        <v>22.832020</v>
+        <v>22.83202</v>
       </c>
       <c r="BA7" s="1">
-        <v>1010.150000</v>
+        <v>1010.15</v>
       </c>
       <c r="BB7" s="1">
-        <v>-123.914000</v>
+        <v>-123.914</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>82206.341227</v>
+        <v>82206.341226999997</v>
       </c>
       <c r="BE7" s="1">
-        <v>22.835095</v>
+        <v>22.835094999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1048.930000</v>
+        <v>1048.93</v>
       </c>
       <c r="BG7" s="1">
-        <v>-194.843000</v>
+        <v>-194.84299999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>82217.130700</v>
+        <v>82217.130699999994</v>
       </c>
       <c r="BJ7" s="1">
         <v>22.838092</v>
       </c>
       <c r="BK7" s="1">
-        <v>1115.820000</v>
+        <v>1115.82</v>
       </c>
       <c r="BL7" s="1">
-        <v>-309.505000</v>
+        <v>-309.505</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>82228.343261</v>
+        <v>82228.343261000002</v>
       </c>
       <c r="BO7" s="1">
         <v>22.841206</v>
       </c>
       <c r="BP7" s="1">
-        <v>1224.140000</v>
+        <v>1224.1400000000001</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-489.106000</v>
+        <v>-489.10599999999999</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>82239.945181</v>
+        <v>82239.945181000003</v>
       </c>
       <c r="BT7" s="1">
-        <v>22.844429</v>
+        <v>22.844429000000002</v>
       </c>
       <c r="BU7" s="1">
-        <v>1345.530000</v>
+        <v>1345.53</v>
       </c>
       <c r="BV7" s="1">
-        <v>-685.297000</v>
+        <v>-685.29700000000003</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>82250.709856</v>
+        <v>82250.709856000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>22.847419</v>
+        <v>22.847418999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1480.120000</v>
+        <v>1480.12</v>
       </c>
       <c r="CA7" s="1">
-        <v>-892.931000</v>
+        <v>-892.93100000000004</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>82262.140160</v>
+        <v>82262.140159999995</v>
       </c>
       <c r="CD7" s="1">
-        <v>22.850594</v>
+        <v>22.850594000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1829.430000</v>
+        <v>1829.43</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1385.670000</v>
+        <v>-1385.67</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>82090.142970</v>
+        <v>82090.142970000001</v>
       </c>
       <c r="B8" s="1">
-        <v>22.802817</v>
+        <v>22.802817000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>908.655000</v>
+        <v>908.65499999999997</v>
       </c>
       <c r="D8" s="1">
-        <v>-202.690000</v>
+        <v>-202.69</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>82100.567381</v>
+        <v>82100.567381000001</v>
       </c>
       <c r="G8" s="1">
-        <v>22.805713</v>
+        <v>22.805713000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>926.426000</v>
+        <v>926.42600000000004</v>
       </c>
       <c r="I8" s="1">
-        <v>-171.573000</v>
+        <v>-171.57300000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>82111.037929</v>
+        <v>82111.037928999998</v>
       </c>
       <c r="L8" s="1">
         <v>22.808622</v>
       </c>
       <c r="M8" s="1">
-        <v>950.456000</v>
+        <v>950.45600000000002</v>
       </c>
       <c r="N8" s="1">
-        <v>-122.046000</v>
+        <v>-122.04600000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>82121.828896</v>
+        <v>82121.828896000006</v>
       </c>
       <c r="Q8" s="1">
         <v>22.811619</v>
       </c>
       <c r="R8" s="1">
-        <v>957.433000</v>
+        <v>957.43299999999999</v>
       </c>
       <c r="S8" s="1">
-        <v>-105.427000</v>
+        <v>-105.42700000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>82132.178907</v>
+        <v>82132.178906999994</v>
       </c>
       <c r="V8" s="1">
         <v>22.814494</v>
       </c>
       <c r="W8" s="1">
-        <v>964.269000</v>
+        <v>964.26900000000001</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.991500</v>
+        <v>-89.991500000000002</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>82142.624686</v>
+        <v>82142.624685999996</v>
       </c>
       <c r="AA8" s="1">
-        <v>22.817396</v>
+        <v>22.817395999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>971.601000</v>
+        <v>971.601</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.967300</v>
+        <v>-77.967299999999994</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>82153.425333</v>
+        <v>82153.425333000007</v>
       </c>
       <c r="AF8" s="1">
-        <v>22.820396</v>
+        <v>22.820395999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>976.612000</v>
+        <v>976.61199999999997</v>
       </c>
       <c r="AH8" s="1">
-        <v>-75.586200</v>
+        <v>-75.586200000000005</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>82163.895090</v>
+        <v>82163.895090000005</v>
       </c>
       <c r="AK8" s="1">
         <v>22.823304</v>
       </c>
       <c r="AL8" s="1">
-        <v>983.777000</v>
+        <v>983.77700000000004</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.856800</v>
+        <v>-79.856800000000007</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>82174.545220</v>
+        <v>82174.54522</v>
       </c>
       <c r="AP8" s="1">
-        <v>22.826263</v>
+        <v>22.826263000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>991.929000</v>
+        <v>991.92899999999997</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.132700</v>
+        <v>-91.1327</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>82184.892230</v>
+        <v>82184.892229999998</v>
       </c>
       <c r="AU8" s="1">
-        <v>22.829137</v>
+        <v>22.829136999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1001.820000</v>
+        <v>1001.82</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.463000</v>
+        <v>-108.46299999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>82195.633592</v>
+        <v>82195.633591999998</v>
       </c>
       <c r="AZ8" s="1">
-        <v>22.832120</v>
+        <v>22.83212</v>
       </c>
       <c r="BA8" s="1">
-        <v>1010.130000</v>
+        <v>1010.13</v>
       </c>
       <c r="BB8" s="1">
-        <v>-123.901000</v>
+        <v>-123.901</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>82207.072330</v>
+        <v>82207.072329999995</v>
       </c>
       <c r="BE8" s="1">
-        <v>22.835298</v>
+        <v>22.835298000000002</v>
       </c>
       <c r="BF8" s="1">
-        <v>1048.930000</v>
+        <v>1048.93</v>
       </c>
       <c r="BG8" s="1">
-        <v>-194.851000</v>
+        <v>-194.851</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>82217.488347</v>
+        <v>82217.488347000006</v>
       </c>
       <c r="BJ8" s="1">
-        <v>22.838191</v>
+        <v>22.838190999999998</v>
       </c>
       <c r="BK8" s="1">
-        <v>1115.830000</v>
+        <v>1115.83</v>
       </c>
       <c r="BL8" s="1">
-        <v>-309.495000</v>
+        <v>-309.495</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>82228.757916</v>
+        <v>82228.757916000002</v>
       </c>
       <c r="BO8" s="1">
-        <v>22.841322</v>
+        <v>22.841322000000002</v>
       </c>
       <c r="BP8" s="1">
-        <v>1224.150000</v>
+        <v>1224.1500000000001</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-489.118000</v>
+        <v>-489.11799999999999</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>82240.361325</v>
+        <v>82240.361325000005</v>
       </c>
       <c r="BT8" s="1">
         <v>22.844545</v>
       </c>
       <c r="BU8" s="1">
-        <v>1345.640000</v>
+        <v>1345.64</v>
       </c>
       <c r="BV8" s="1">
-        <v>-685.277000</v>
+        <v>-685.27700000000004</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>82251.455874</v>
+        <v>82251.455874000007</v>
       </c>
       <c r="BY8" s="1">
-        <v>22.847627</v>
+        <v>22.847626999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1480.230000</v>
+        <v>1480.23</v>
       </c>
       <c r="CA8" s="1">
-        <v>-892.895000</v>
+        <v>-892.89499999999998</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>82263.000719</v>
+        <v>82263.000719000003</v>
       </c>
       <c r="CD8" s="1">
-        <v>22.850834</v>
+        <v>22.850833999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1829.200000</v>
+        <v>1829.2</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1384.080000</v>
+        <v>-1384.08</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>82090.490661</v>
+        <v>82090.490661000003</v>
       </c>
       <c r="B9" s="1">
-        <v>22.802914</v>
+        <v>22.802914000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>908.785000</v>
+        <v>908.78499999999997</v>
       </c>
       <c r="D9" s="1">
-        <v>-202.697000</v>
+        <v>-202.697</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>82100.919541</v>
+        <v>82100.919540999996</v>
       </c>
       <c r="G9" s="1">
-        <v>22.805811</v>
+        <v>22.805810999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>927.090000</v>
+        <v>927.09</v>
       </c>
       <c r="I9" s="1">
-        <v>-171.444000</v>
+        <v>-171.44399999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>82111.387113</v>
+        <v>82111.387113000004</v>
       </c>
       <c r="L9" s="1">
         <v>22.808719</v>
       </c>
       <c r="M9" s="1">
-        <v>950.540000</v>
+        <v>950.54</v>
       </c>
       <c r="N9" s="1">
-        <v>-121.952000</v>
+        <v>-121.952</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>82122.253497</v>
+        <v>82122.253496999998</v>
       </c>
       <c r="Q9" s="1">
-        <v>22.811737</v>
+        <v>22.811737000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>957.428000</v>
+        <v>957.428</v>
       </c>
       <c r="S9" s="1">
-        <v>-105.394000</v>
+        <v>-105.39400000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>82132.452700</v>
+        <v>82132.452699999994</v>
       </c>
       <c r="V9" s="1">
-        <v>22.814570</v>
+        <v>22.81457</v>
       </c>
       <c r="W9" s="1">
-        <v>964.351000</v>
+        <v>964.351</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.982300</v>
+        <v>-89.982299999999995</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>82142.898483</v>
+        <v>82142.898482999997</v>
       </c>
       <c r="AA9" s="1">
-        <v>22.817472</v>
+        <v>22.817471999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>971.646000</v>
+        <v>971.64599999999996</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.966200</v>
+        <v>-77.966200000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>82153.767808</v>
+        <v>82153.767808000004</v>
       </c>
       <c r="AF9" s="1">
-        <v>22.820491</v>
+        <v>22.820491000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>976.470000</v>
+        <v>976.47</v>
       </c>
       <c r="AH9" s="1">
-        <v>-75.520600</v>
+        <v>-75.520600000000002</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>82164.242785</v>
+        <v>82164.242784999995</v>
       </c>
       <c r="AK9" s="1">
         <v>22.823401</v>
       </c>
       <c r="AL9" s="1">
-        <v>983.769000</v>
+        <v>983.76900000000001</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.888500</v>
+        <v>-79.888499999999993</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>82174.904292</v>
+        <v>82174.904292000007</v>
       </c>
       <c r="AP9" s="1">
         <v>22.826362</v>
       </c>
       <c r="AQ9" s="1">
-        <v>991.937000</v>
+        <v>991.93700000000001</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.113500</v>
+        <v>-91.113500000000002</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>82185.622469</v>
+        <v>82185.622468999994</v>
       </c>
       <c r="AU9" s="1">
-        <v>22.829340</v>
+        <v>22.829339999999998</v>
       </c>
       <c r="AV9" s="1">
-        <v>1001.810000</v>
+        <v>1001.81</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.458000</v>
+        <v>-108.458</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>82196.346877</v>
+        <v>82196.346877000004</v>
       </c>
       <c r="AZ9" s="1">
-        <v>22.832319</v>
+        <v>22.832318999999998</v>
       </c>
       <c r="BA9" s="1">
-        <v>1010.120000</v>
+        <v>1010.12</v>
       </c>
       <c r="BB9" s="1">
-        <v>-123.893000</v>
+        <v>-123.893</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>82207.449330</v>
+        <v>82207.449330000003</v>
       </c>
       <c r="BE9" s="1">
-        <v>22.835403</v>
+        <v>22.835402999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1048.900000</v>
+        <v>1048.9000000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-194.843000</v>
+        <v>-194.84299999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>82217.865311</v>
+        <v>82217.865311000001</v>
       </c>
       <c r="BJ9" s="1">
         <v>22.838296</v>
       </c>
       <c r="BK9" s="1">
-        <v>1115.830000</v>
+        <v>1115.83</v>
       </c>
       <c r="BL9" s="1">
-        <v>-309.512000</v>
+        <v>-309.512</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>82229.158684</v>
+        <v>82229.158683999995</v>
       </c>
       <c r="BO9" s="1">
-        <v>22.841433</v>
+        <v>22.841432999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1224.170000</v>
+        <v>1224.17</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-489.097000</v>
+        <v>-489.09699999999998</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>82241.112764</v>
+        <v>82241.112764000005</v>
       </c>
       <c r="BT9" s="1">
-        <v>22.844754</v>
+        <v>22.844753999999998</v>
       </c>
       <c r="BU9" s="1">
-        <v>1345.610000</v>
+        <v>1345.61</v>
       </c>
       <c r="BV9" s="1">
-        <v>-685.225000</v>
+        <v>-685.22500000000002</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>82251.577358</v>
+        <v>82251.577357999995</v>
       </c>
       <c r="BY9" s="1">
-        <v>22.847660</v>
+        <v>22.847660000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1480.210000</v>
+        <v>1480.21</v>
       </c>
       <c r="CA9" s="1">
-        <v>-892.901000</v>
+        <v>-892.90099999999995</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>82263.221455</v>
+        <v>82263.221455000006</v>
       </c>
       <c r="CD9" s="1">
-        <v>22.850895</v>
+        <v>22.850895000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1829.450000</v>
+        <v>1829.45</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1384.110000</v>
+        <v>-1384.11</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>82090.832898</v>
+        <v>82090.832897999993</v>
       </c>
       <c r="B10" s="1">
-        <v>22.803009</v>
+        <v>22.803008999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>908.731000</v>
+        <v>908.73099999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-202.857000</v>
+        <v>-202.857</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>82101.342132</v>
+        <v>82101.342132000005</v>
       </c>
       <c r="G10" s="1">
-        <v>22.805928</v>
+        <v>22.805928000000002</v>
       </c>
       <c r="H10" s="1">
-        <v>926.665000</v>
+        <v>926.66499999999996</v>
       </c>
       <c r="I10" s="1">
-        <v>-171.846000</v>
+        <v>-171.846</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>82112.093943</v>
       </c>
       <c r="L10" s="1">
-        <v>22.808915</v>
+        <v>22.808914999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>950.370000</v>
+        <v>950.37</v>
       </c>
       <c r="N10" s="1">
-        <v>-122.061000</v>
+        <v>-122.06100000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>82122.529273</v>
+        <v>82122.529272999993</v>
       </c>
       <c r="Q10" s="1">
-        <v>22.811814</v>
+        <v>22.811813999999998</v>
       </c>
       <c r="R10" s="1">
-        <v>957.457000</v>
+        <v>957.45699999999999</v>
       </c>
       <c r="S10" s="1">
-        <v>-105.413000</v>
+        <v>-105.413</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>82132.799404</v>
+        <v>82132.799404000005</v>
       </c>
       <c r="V10" s="1">
         <v>22.814667</v>
       </c>
       <c r="W10" s="1">
-        <v>964.246000</v>
+        <v>964.24599999999998</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.048400</v>
+        <v>-90.048400000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>82143.249149</v>
+        <v>82143.249148999996</v>
       </c>
       <c r="AA10" s="1">
-        <v>22.817569</v>
+        <v>22.817568999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>971.652000</v>
+        <v>971.65200000000004</v>
       </c>
       <c r="AC10" s="1">
-        <v>-78.049300</v>
+        <v>-78.049300000000002</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>82154.110510</v>
+        <v>82154.110509999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>22.820586</v>
+        <v>22.820585999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>976.505000</v>
+        <v>976.505</v>
       </c>
       <c r="AH10" s="1">
-        <v>-75.454700</v>
+        <v>-75.454700000000003</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>82164.942144</v>
+        <v>82164.942144000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>22.823595</v>
+        <v>22.823595000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>983.785000</v>
+        <v>983.78499999999997</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.880900</v>
+        <v>-79.880899999999997</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>82175.634402</v>
+        <v>82175.634401999996</v>
       </c>
       <c r="AP10" s="1">
-        <v>22.826565</v>
+        <v>22.826564999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>991.952000</v>
+        <v>991.952</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.146600</v>
+        <v>-91.146600000000007</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>82186.012733</v>
+        <v>82186.012732999996</v>
       </c>
       <c r="AU10" s="1">
-        <v>22.829448</v>
+        <v>22.829447999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1001.810000</v>
+        <v>1001.81</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.454000</v>
+        <v>-108.45399999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>82196.735703</v>
+        <v>82196.735702999998</v>
       </c>
       <c r="AZ10" s="1">
-        <v>22.832427</v>
+        <v>22.832426999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1010.140000</v>
+        <v>1010.14</v>
       </c>
       <c r="BB10" s="1">
-        <v>-123.899000</v>
+        <v>-123.899</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>82207.810872</v>
+        <v>82207.810872000002</v>
       </c>
       <c r="BE10" s="1">
-        <v>22.835503</v>
+        <v>22.835502999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1048.930000</v>
+        <v>1048.93</v>
       </c>
       <c r="BG10" s="1">
-        <v>-194.867000</v>
+        <v>-194.86699999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>82218.554745</v>
+        <v>82218.554745000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>22.838487</v>
+        <v>22.838487000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1115.820000</v>
+        <v>1115.82</v>
       </c>
       <c r="BL10" s="1">
-        <v>-309.487000</v>
+        <v>-309.48700000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>82229.884344</v>
+        <v>82229.884344000006</v>
       </c>
       <c r="BO10" s="1">
         <v>22.841635</v>
       </c>
       <c r="BP10" s="1">
-        <v>1224.180000</v>
+        <v>1224.18</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-489.079000</v>
+        <v>-489.07900000000001</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>82241.226348</v>
+        <v>82241.226347999997</v>
       </c>
       <c r="BT10" s="1">
-        <v>22.844785</v>
+        <v>22.844785000000002</v>
       </c>
       <c r="BU10" s="1">
-        <v>1345.680000</v>
+        <v>1345.68</v>
       </c>
       <c r="BV10" s="1">
-        <v>-685.117000</v>
+        <v>-685.11699999999996</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>82252.005405</v>
+        <v>82252.005405000004</v>
       </c>
       <c r="BY10" s="1">
-        <v>22.847779</v>
+        <v>22.847778999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1480.140000</v>
+        <v>1480.14</v>
       </c>
       <c r="CA10" s="1">
-        <v>-892.928000</v>
+        <v>-892.928</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>82263.740782</v>
+        <v>82263.740781999993</v>
       </c>
       <c r="CD10" s="1">
         <v>22.851039</v>
       </c>
       <c r="CE10" s="1">
-        <v>1829.480000</v>
+        <v>1829.48</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1385.170000</v>
+        <v>-1385.17</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>82091.253506</v>
+        <v>82091.253505999994</v>
       </c>
       <c r="B11" s="1">
-        <v>22.803126</v>
+        <v>22.803125999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>908.825000</v>
+        <v>908.82500000000005</v>
       </c>
       <c r="D11" s="1">
-        <v>-202.737000</v>
+        <v>-202.73699999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>82101.622868</v>
+        <v>82101.622868000006</v>
       </c>
       <c r="G11" s="1">
         <v>22.806006</v>
       </c>
       <c r="H11" s="1">
-        <v>927.143000</v>
+        <v>927.14300000000003</v>
       </c>
       <c r="I11" s="1">
-        <v>-172.035000</v>
+        <v>-172.035</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>82112.429734</v>
+        <v>82112.429734000005</v>
       </c>
       <c r="L11" s="1">
-        <v>22.809008</v>
+        <v>22.809007999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>950.434000</v>
+        <v>950.43399999999997</v>
       </c>
       <c r="N11" s="1">
-        <v>-121.964000</v>
+        <v>-121.964</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>82122.875485</v>
+        <v>82122.875484999997</v>
       </c>
       <c r="Q11" s="1">
-        <v>22.811910</v>
+        <v>22.811910000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>957.471000</v>
+        <v>957.471</v>
       </c>
       <c r="S11" s="1">
-        <v>-105.414000</v>
+        <v>-105.414</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>82133.142138</v>
+        <v>82133.142137999996</v>
       </c>
       <c r="V11" s="1">
-        <v>22.814762</v>
+        <v>22.814762000000002</v>
       </c>
       <c r="W11" s="1">
-        <v>964.249000</v>
+        <v>964.24900000000002</v>
       </c>
       <c r="X11" s="1">
-        <v>-90.029900</v>
+        <v>-90.029899999999998</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>82143.597805</v>
+        <v>82143.597804999998</v>
       </c>
       <c r="AA11" s="1">
-        <v>22.817666</v>
+        <v>22.817665999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>971.589000</v>
+        <v>971.58900000000006</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.937800</v>
+        <v>-77.937799999999996</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>82154.799454</v>
+        <v>82154.799454000007</v>
       </c>
       <c r="AF11" s="1">
-        <v>22.820778</v>
+        <v>22.820778000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>976.436000</v>
+        <v>976.43600000000004</v>
       </c>
       <c r="AH11" s="1">
-        <v>-75.531300</v>
+        <v>-75.531300000000002</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>82165.288352</v>
+        <v>82165.288352000003</v>
       </c>
       <c r="AK11" s="1">
         <v>22.823691</v>
       </c>
       <c r="AL11" s="1">
-        <v>983.753000</v>
+        <v>983.75300000000004</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.850500</v>
+        <v>-79.850499999999997</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>82176.011363</v>
+        <v>82176.011362999998</v>
       </c>
       <c r="AP11" s="1">
-        <v>22.826670</v>
+        <v>22.82667</v>
       </c>
       <c r="AQ11" s="1">
-        <v>991.938000</v>
+        <v>991.93799999999999</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.141600</v>
+        <v>-91.141599999999997</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>82186.376260</v>
+        <v>82186.376260000005</v>
       </c>
       <c r="AU11" s="1">
         <v>22.829549</v>
       </c>
       <c r="AV11" s="1">
-        <v>1001.820000</v>
+        <v>1001.82</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.458000</v>
+        <v>-108.458</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>82197.117622</v>
+        <v>82197.117622000005</v>
       </c>
       <c r="AZ11" s="1">
-        <v>22.832533</v>
+        <v>22.832533000000002</v>
       </c>
       <c r="BA11" s="1">
-        <v>1010.130000</v>
+        <v>1010.13</v>
       </c>
       <c r="BB11" s="1">
-        <v>-123.917000</v>
+        <v>-123.917</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>82208.487067</v>
+        <v>82208.487066999995</v>
       </c>
       <c r="BE11" s="1">
-        <v>22.835691</v>
+        <v>22.835691000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1048.930000</v>
+        <v>1048.93</v>
       </c>
       <c r="BG11" s="1">
-        <v>-194.836000</v>
+        <v>-194.83600000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>82218.989706</v>
+        <v>82218.989705999993</v>
       </c>
       <c r="BJ11" s="1">
-        <v>22.838608</v>
+        <v>22.838608000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1115.840000</v>
+        <v>1115.8399999999999</v>
       </c>
       <c r="BL11" s="1">
-        <v>-309.514000</v>
+        <v>-309.51400000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>82230.406124</v>
+        <v>82230.406124000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>22.841779</v>
+        <v>22.841778999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1224.180000</v>
+        <v>1224.18</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-489.079000</v>
+        <v>-489.07900000000001</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>82241.665307</v>
+        <v>82241.665307000003</v>
       </c>
       <c r="BT11" s="1">
-        <v>22.844907</v>
+        <v>22.844906999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1345.730000</v>
+        <v>1345.73</v>
       </c>
       <c r="BV11" s="1">
-        <v>-685.083000</v>
+        <v>-685.08299999999997</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>82252.423070</v>
+        <v>82252.423070000004</v>
       </c>
       <c r="BY11" s="1">
-        <v>22.847895</v>
+        <v>22.847895000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1480.210000</v>
+        <v>1480.21</v>
       </c>
       <c r="CA11" s="1">
-        <v>-892.826000</v>
+        <v>-892.82600000000002</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>82264.257581</v>
+        <v>82264.257580999998</v>
       </c>
       <c r="CD11" s="1">
-        <v>22.851183</v>
+        <v>22.851182999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1830.530000</v>
+        <v>1830.53</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1384.790000</v>
+        <v>-1384.79</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>82091.530283</v>
       </c>
@@ -3051,2975 +3467,2975 @@
         <v>22.803203</v>
       </c>
       <c r="C12" s="1">
-        <v>908.732000</v>
+        <v>908.73199999999997</v>
       </c>
       <c r="D12" s="1">
-        <v>-202.974000</v>
+        <v>-202.97399999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>82101.964612</v>
+        <v>82101.964611999996</v>
       </c>
       <c r="G12" s="1">
-        <v>22.806101</v>
+        <v>22.806101000000002</v>
       </c>
       <c r="H12" s="1">
-        <v>926.699000</v>
+        <v>926.69899999999996</v>
       </c>
       <c r="I12" s="1">
-        <v>-171.665000</v>
+        <v>-171.66499999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>82112.773926</v>
+        <v>82112.773925999994</v>
       </c>
       <c r="L12" s="1">
-        <v>22.809104</v>
+        <v>22.809104000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>950.557000</v>
+        <v>950.55700000000002</v>
       </c>
       <c r="N12" s="1">
-        <v>-121.964000</v>
+        <v>-121.964</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>82123.226120</v>
+        <v>82123.226120000007</v>
       </c>
       <c r="Q12" s="1">
-        <v>22.812007</v>
+        <v>22.812007000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>957.455000</v>
+        <v>957.45500000000004</v>
       </c>
       <c r="S12" s="1">
-        <v>-105.446000</v>
+        <v>-105.446</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>82133.825662</v>
+        <v>82133.825662000003</v>
       </c>
       <c r="V12" s="1">
-        <v>22.814952</v>
+        <v>22.814952000000002</v>
       </c>
       <c r="W12" s="1">
-        <v>964.241000</v>
+        <v>964.24099999999999</v>
       </c>
       <c r="X12" s="1">
-        <v>-90.012000</v>
+        <v>-90.012</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>82144.295677</v>
+        <v>82144.295677000002</v>
       </c>
       <c r="AA12" s="1">
-        <v>22.817860</v>
+        <v>22.81786</v>
       </c>
       <c r="AB12" s="1">
-        <v>971.572000</v>
+        <v>971.572</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.977200</v>
+        <v>-77.977199999999996</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>82155.141218</v>
+        <v>82155.141218000004</v>
       </c>
       <c r="AF12" s="1">
-        <v>22.820873</v>
+        <v>22.820872999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>976.513000</v>
+        <v>976.51300000000003</v>
       </c>
       <c r="AH12" s="1">
-        <v>-75.565300</v>
+        <v>-75.565299999999993</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>82165.634065</v>
+        <v>82165.634065000006</v>
       </c>
       <c r="AK12" s="1">
-        <v>22.823787</v>
+        <v>22.823786999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>983.780000</v>
+        <v>983.78</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.862500</v>
+        <v>-79.862499999999997</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>82176.399233</v>
+        <v>82176.399233000004</v>
       </c>
       <c r="AP12" s="1">
-        <v>22.826778</v>
+        <v>22.826778000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>991.921000</v>
+        <v>991.92100000000005</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.126900</v>
+        <v>-91.126900000000006</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>82187.060245</v>
+        <v>82187.060245000001</v>
       </c>
       <c r="AU12" s="1">
         <v>22.829739</v>
       </c>
       <c r="AV12" s="1">
-        <v>1001.840000</v>
+        <v>1001.84</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.468000</v>
+        <v>-108.468</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>82197.789205</v>
+        <v>82197.789204999994</v>
       </c>
       <c r="AZ12" s="1">
-        <v>22.832719</v>
+        <v>22.832719000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1010.130000</v>
+        <v>1010.13</v>
       </c>
       <c r="BB12" s="1">
-        <v>-123.921000</v>
+        <v>-123.92100000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>82208.927864</v>
+        <v>82208.927863999997</v>
       </c>
       <c r="BE12" s="1">
-        <v>22.835813</v>
+        <v>22.835813000000002</v>
       </c>
       <c r="BF12" s="1">
-        <v>1048.940000</v>
+        <v>1048.94</v>
       </c>
       <c r="BG12" s="1">
-        <v>-194.846000</v>
+        <v>-194.846</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>82219.364186</v>
+        <v>82219.364186000006</v>
       </c>
       <c r="BJ12" s="1">
-        <v>22.838712</v>
+        <v>22.838712000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1115.820000</v>
+        <v>1115.82</v>
       </c>
       <c r="BL12" s="1">
-        <v>-309.487000</v>
+        <v>-309.48700000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>82230.816314</v>
+        <v>82230.816313999996</v>
       </c>
       <c r="BO12" s="1">
-        <v>22.841893</v>
+        <v>22.841892999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1224.140000</v>
+        <v>1224.1400000000001</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-489.101000</v>
+        <v>-489.101</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>82242.078971</v>
+        <v>82242.078970999995</v>
       </c>
       <c r="BT12" s="1">
         <v>22.845022</v>
       </c>
       <c r="BU12" s="1">
-        <v>1345.690000</v>
+        <v>1345.69</v>
       </c>
       <c r="BV12" s="1">
-        <v>-684.991000</v>
+        <v>-684.99099999999999</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>82252.867489</v>
+        <v>82252.867488999997</v>
       </c>
       <c r="BY12" s="1">
-        <v>22.848019</v>
+        <v>22.848019000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1480.200000</v>
+        <v>1480.2</v>
       </c>
       <c r="CA12" s="1">
-        <v>-892.879000</v>
+        <v>-892.87900000000002</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>82264.778390</v>
+        <v>82264.778390000007</v>
       </c>
       <c r="CD12" s="1">
-        <v>22.851327</v>
+        <v>22.851327000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1830.030000</v>
+        <v>1830.03</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1383.960000</v>
+        <v>-1383.96</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>82091.873009</v>
+        <v>82091.873009000003</v>
       </c>
       <c r="B13" s="1">
-        <v>22.803298</v>
+        <v>22.803298000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>908.760000</v>
+        <v>908.76</v>
       </c>
       <c r="D13" s="1">
-        <v>-202.808000</v>
+        <v>-202.80799999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>82102.309331</v>
+        <v>82102.309330999997</v>
       </c>
       <c r="G13" s="1">
-        <v>22.806197</v>
+        <v>22.806197000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>926.537000</v>
+        <v>926.53700000000003</v>
       </c>
       <c r="I13" s="1">
-        <v>-171.531000</v>
+        <v>-171.53100000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>82113.466836</v>
+        <v>82113.466836000007</v>
       </c>
       <c r="L13" s="1">
         <v>22.809296</v>
       </c>
       <c r="M13" s="1">
-        <v>950.440000</v>
+        <v>950.44</v>
       </c>
       <c r="N13" s="1">
-        <v>-121.967000</v>
+        <v>-121.967</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>82123.923496</v>
+        <v>82123.923496000003</v>
       </c>
       <c r="Q13" s="1">
-        <v>22.812201</v>
+        <v>22.812201000000002</v>
       </c>
       <c r="R13" s="1">
-        <v>957.416000</v>
+        <v>957.41600000000005</v>
       </c>
       <c r="S13" s="1">
-        <v>-105.446000</v>
+        <v>-105.446</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>82134.169354</v>
+        <v>82134.169353999998</v>
       </c>
       <c r="V13" s="1">
         <v>22.815047</v>
       </c>
       <c r="W13" s="1">
-        <v>964.294000</v>
+        <v>964.29399999999998</v>
       </c>
       <c r="X13" s="1">
-        <v>-90.051100</v>
+        <v>-90.051100000000005</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>82144.648331</v>
+        <v>82144.648331000004</v>
       </c>
       <c r="AA13" s="1">
-        <v>22.817958</v>
+        <v>22.817958000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>971.575000</v>
+        <v>971.57500000000005</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.977000</v>
+        <v>-77.977000000000004</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>82155.483932</v>
+        <v>82155.483932000003</v>
       </c>
       <c r="AF13" s="1">
-        <v>22.820968</v>
+        <v>22.820968000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>976.449000</v>
+        <v>976.44899999999996</v>
       </c>
       <c r="AH13" s="1">
-        <v>-75.312600</v>
+        <v>-75.312600000000003</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>82166.304159</v>
+        <v>82166.304159000007</v>
       </c>
       <c r="AK13" s="1">
-        <v>22.823973</v>
+        <v>22.823972999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>983.766000</v>
+        <v>983.76599999999996</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.838500</v>
+        <v>-79.838499999999996</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>82177.073793</v>
+        <v>82177.073793000003</v>
       </c>
       <c r="AP13" s="1">
-        <v>22.826965</v>
+        <v>22.826965000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>991.941000</v>
+        <v>991.94100000000003</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.108700</v>
+        <v>-91.108699999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>82187.470931</v>
+        <v>82187.470931000003</v>
       </c>
       <c r="AU13" s="1">
         <v>22.829853</v>
       </c>
       <c r="AV13" s="1">
-        <v>1001.810000</v>
+        <v>1001.81</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.455000</v>
+        <v>-108.455</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>82198.194932</v>
+        <v>82198.194931999999</v>
       </c>
       <c r="AZ13" s="1">
         <v>22.832832</v>
       </c>
       <c r="BA13" s="1">
-        <v>1010.130000</v>
+        <v>1010.13</v>
       </c>
       <c r="BB13" s="1">
-        <v>-123.919000</v>
+        <v>-123.919</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>82209.289446</v>
+        <v>82209.289445999995</v>
       </c>
       <c r="BE13" s="1">
-        <v>22.835914</v>
+        <v>22.835913999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1048.930000</v>
+        <v>1048.93</v>
       </c>
       <c r="BG13" s="1">
-        <v>-194.834000</v>
+        <v>-194.834</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>82219.742632</v>
+        <v>82219.742631999994</v>
       </c>
       <c r="BJ13" s="1">
-        <v>22.838817</v>
+        <v>22.838816999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1115.820000</v>
+        <v>1115.82</v>
       </c>
       <c r="BL13" s="1">
-        <v>-309.518000</v>
+        <v>-309.51799999999997</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>82231.212122</v>
+        <v>82231.212121999997</v>
       </c>
       <c r="BO13" s="1">
-        <v>22.842003</v>
+        <v>22.842002999999998</v>
       </c>
       <c r="BP13" s="1">
-        <v>1224.180000</v>
+        <v>1224.18</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-489.076000</v>
+        <v>-489.07600000000002</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>82242.509003</v>
+        <v>82242.509002999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>22.845141</v>
+        <v>22.845141000000002</v>
       </c>
       <c r="BU13" s="1">
-        <v>1345.680000</v>
+        <v>1345.68</v>
       </c>
       <c r="BV13" s="1">
-        <v>-684.880000</v>
+        <v>-684.88</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>82253.288061</v>
+        <v>82253.288060999999</v>
       </c>
       <c r="BY13" s="1">
         <v>22.848136</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1480.150000</v>
+        <v>1480.15</v>
       </c>
       <c r="CA13" s="1">
-        <v>-892.936000</v>
+        <v>-892.93600000000004</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>82265.296700</v>
+        <v>82265.296700000006</v>
       </c>
       <c r="CD13" s="1">
         <v>22.851471</v>
       </c>
       <c r="CE13" s="1">
-        <v>1829.880000</v>
+        <v>1829.88</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1383.730000</v>
+        <v>-1383.73</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>82092.211280</v>
+        <v>82092.211280000003</v>
       </c>
       <c r="B14" s="1">
-        <v>22.803392</v>
+        <v>22.803391999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>908.664000</v>
+        <v>908.66399999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-202.751000</v>
+        <v>-202.751</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>82102.999266</v>
+        <v>82102.999265999999</v>
       </c>
       <c r="G14" s="1">
-        <v>22.806389</v>
+        <v>22.806388999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>926.535000</v>
+        <v>926.53499999999997</v>
       </c>
       <c r="I14" s="1">
-        <v>-172.511000</v>
+        <v>-172.511</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>82113.813044</v>
+        <v>82113.813043999995</v>
       </c>
       <c r="L14" s="1">
         <v>22.809393</v>
       </c>
       <c r="M14" s="1">
-        <v>950.636000</v>
+        <v>950.63599999999997</v>
       </c>
       <c r="N14" s="1">
-        <v>-122.015000</v>
+        <v>-122.015</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>82124.272183</v>
+        <v>82124.272182999994</v>
       </c>
       <c r="Q14" s="1">
-        <v>22.812298</v>
+        <v>22.812297999999998</v>
       </c>
       <c r="R14" s="1">
-        <v>957.426000</v>
+        <v>957.42600000000004</v>
       </c>
       <c r="S14" s="1">
-        <v>-105.411000</v>
+        <v>-105.411</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>82134.515561</v>
+        <v>82134.515560999993</v>
       </c>
       <c r="V14" s="1">
-        <v>22.815143</v>
+        <v>22.815142999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>964.274000</v>
+        <v>964.274</v>
       </c>
       <c r="X14" s="1">
-        <v>-90.018700</v>
+        <v>-90.018699999999995</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>82144.996523</v>
+        <v>82144.996522999994</v>
       </c>
       <c r="AA14" s="1">
-        <v>22.818055</v>
+        <v>22.818055000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>971.580000</v>
+        <v>971.58</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.932100</v>
+        <v>-77.932100000000005</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>82156.138685</v>
+        <v>82156.138684999998</v>
       </c>
       <c r="AF14" s="1">
-        <v>22.821150</v>
+        <v>22.821149999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>976.517000</v>
+        <v>976.51700000000005</v>
       </c>
       <c r="AH14" s="1">
-        <v>-75.462900</v>
+        <v>-75.462900000000005</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>82166.683102</v>
+        <v>82166.683101999995</v>
       </c>
       <c r="AK14" s="1">
-        <v>22.824079</v>
+        <v>22.824079000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>983.767000</v>
+        <v>983.76700000000005</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.867800</v>
+        <v>-79.867800000000003</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>82177.482992</v>
+        <v>82177.482992000005</v>
       </c>
       <c r="AP14" s="1">
-        <v>22.827079</v>
+        <v>22.827079000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>991.924000</v>
+        <v>991.92399999999998</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.107900</v>
+        <v>-91.107900000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>82187.835986</v>
+        <v>82187.835986000006</v>
       </c>
       <c r="AU14" s="1">
-        <v>22.829954</v>
+        <v>22.829954000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1001.810000</v>
+        <v>1001.81</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.468000</v>
+        <v>-108.468</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>82198.706346</v>
+        <v>82198.706346000006</v>
       </c>
       <c r="AZ14" s="1">
         <v>22.832974</v>
       </c>
       <c r="BA14" s="1">
-        <v>1010.140000</v>
+        <v>1010.14</v>
       </c>
       <c r="BB14" s="1">
-        <v>-123.911000</v>
+        <v>-123.911</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>82209.652021</v>
+        <v>82209.652021000002</v>
       </c>
       <c r="BE14" s="1">
-        <v>22.836014</v>
+        <v>22.836013999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1048.950000</v>
+        <v>1048.95</v>
       </c>
       <c r="BG14" s="1">
-        <v>-194.846000</v>
+        <v>-194.846</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>82220.163239</v>
+        <v>82220.163239000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>22.838934</v>
+        <v>22.838933999999998</v>
       </c>
       <c r="BK14" s="1">
-        <v>1115.840000</v>
+        <v>1115.8399999999999</v>
       </c>
       <c r="BL14" s="1">
-        <v>-309.504000</v>
+        <v>-309.50400000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>82231.639672</v>
+        <v>82231.639672000005</v>
       </c>
       <c r="BO14" s="1">
         <v>22.842122</v>
       </c>
       <c r="BP14" s="1">
-        <v>1224.160000</v>
+        <v>1224.1600000000001</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-489.070000</v>
+        <v>-489.07</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>82242.936058</v>
+        <v>82242.936058000007</v>
       </c>
       <c r="BT14" s="1">
-        <v>22.845260</v>
+        <v>22.84526</v>
       </c>
       <c r="BU14" s="1">
-        <v>1345.600000</v>
+        <v>1345.6</v>
       </c>
       <c r="BV14" s="1">
-        <v>-684.836000</v>
+        <v>-684.83600000000001</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>82253.712636</v>
+        <v>82253.712635999997</v>
       </c>
       <c r="BY14" s="1">
-        <v>22.848254</v>
+        <v>22.848254000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1480.050000</v>
+        <v>1480.05</v>
       </c>
       <c r="CA14" s="1">
-        <v>-892.974000</v>
+        <v>-892.97400000000005</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>82265.844817</v>
+        <v>82265.844817000005</v>
       </c>
       <c r="CD14" s="1">
-        <v>22.851624</v>
+        <v>22.851624000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1830.480000</v>
+        <v>1830.48</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1384.370000</v>
+        <v>-1384.37</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>82092.896751</v>
+        <v>82092.896750999993</v>
       </c>
       <c r="B15" s="1">
-        <v>22.803582</v>
+        <v>22.803581999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>908.673000</v>
+        <v>908.673</v>
       </c>
       <c r="D15" s="1">
-        <v>-202.745000</v>
+        <v>-202.745</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>82103.342498</v>
+        <v>82103.342497999998</v>
       </c>
       <c r="G15" s="1">
-        <v>22.806484</v>
+        <v>22.806484000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>927.057000</v>
+        <v>927.05700000000002</v>
       </c>
       <c r="I15" s="1">
-        <v>-171.608000</v>
+        <v>-171.608</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>82114.157268</v>
+        <v>82114.157267999995</v>
       </c>
       <c r="L15" s="1">
-        <v>22.809488</v>
+        <v>22.809488000000002</v>
       </c>
       <c r="M15" s="1">
-        <v>950.524000</v>
+        <v>950.524</v>
       </c>
       <c r="N15" s="1">
-        <v>-122.036000</v>
+        <v>-122.036</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>82124.620873</v>
+        <v>82124.620873000007</v>
       </c>
       <c r="Q15" s="1">
-        <v>22.812395</v>
+        <v>22.812394999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>957.456000</v>
+        <v>957.45600000000002</v>
       </c>
       <c r="S15" s="1">
-        <v>-105.385000</v>
+        <v>-105.38500000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>82135.178713</v>
+        <v>82135.178713000001</v>
       </c>
       <c r="V15" s="1">
         <v>22.815327</v>
       </c>
       <c r="W15" s="1">
-        <v>964.213000</v>
+        <v>964.21299999999997</v>
       </c>
       <c r="X15" s="1">
-        <v>-90.024700</v>
+        <v>-90.024699999999996</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>82145.659345</v>
+        <v>82145.659344999993</v>
       </c>
       <c r="AA15" s="1">
-        <v>22.818239</v>
+        <v>22.818238999999998</v>
       </c>
       <c r="AB15" s="1">
-        <v>971.630000</v>
+        <v>971.63</v>
       </c>
       <c r="AC15" s="1">
-        <v>-78.024300</v>
+        <v>-78.024299999999997</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>82156.515612</v>
+        <v>82156.515612000003</v>
       </c>
       <c r="AF15" s="1">
         <v>22.821254</v>
       </c>
       <c r="AG15" s="1">
-        <v>976.426000</v>
+        <v>976.42600000000004</v>
       </c>
       <c r="AH15" s="1">
-        <v>-75.517600</v>
+        <v>-75.517600000000002</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>82167.022366</v>
+        <v>82167.022366000005</v>
       </c>
       <c r="AK15" s="1">
-        <v>22.824173</v>
+        <v>22.824172999999998</v>
       </c>
       <c r="AL15" s="1">
-        <v>983.795000</v>
+        <v>983.79499999999996</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.887300</v>
+        <v>-79.887299999999996</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>82177.864417</v>
+        <v>82177.864417000004</v>
       </c>
       <c r="AP15" s="1">
         <v>22.827185</v>
       </c>
       <c r="AQ15" s="1">
-        <v>991.937000</v>
+        <v>991.93700000000001</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.124300</v>
+        <v>-91.124300000000005</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>82188.201042</v>
+        <v>82188.201042000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>22.830056</v>
+        <v>22.830055999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1001.820000</v>
+        <v>1001.82</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.466000</v>
+        <v>-108.46599999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>82198.965220</v>
+        <v>82198.965219999998</v>
       </c>
       <c r="AZ15" s="1">
         <v>22.833046</v>
       </c>
       <c r="BA15" s="1">
-        <v>1010.140000</v>
+        <v>1010.14</v>
       </c>
       <c r="BB15" s="1">
-        <v>-123.904000</v>
+        <v>-123.904</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>82210.074645</v>
+        <v>82210.074645000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>22.836132</v>
+        <v>22.836131999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1048.950000</v>
+        <v>1048.95</v>
       </c>
       <c r="BG15" s="1">
-        <v>-194.865000</v>
+        <v>-194.86500000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>82220.511464</v>
+        <v>82220.511463999996</v>
       </c>
       <c r="BJ15" s="1">
-        <v>22.839031</v>
+        <v>22.839030999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1115.830000</v>
+        <v>1115.83</v>
       </c>
       <c r="BL15" s="1">
-        <v>-309.511000</v>
+        <v>-309.51100000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>82232.032009</v>
+        <v>82232.032009000002</v>
       </c>
       <c r="BO15" s="1">
-        <v>22.842231</v>
+        <v>22.842231000000002</v>
       </c>
       <c r="BP15" s="1">
-        <v>1224.150000</v>
+        <v>1224.1500000000001</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-489.125000</v>
+        <v>-489.125</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>82243.346745</v>
+        <v>82243.346745000003</v>
       </c>
       <c r="BT15" s="1">
         <v>22.845374</v>
       </c>
       <c r="BU15" s="1">
-        <v>1345.550000</v>
+        <v>1345.55</v>
       </c>
       <c r="BV15" s="1">
-        <v>-684.732000</v>
+        <v>-684.73199999999997</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>82254.159531</v>
+        <v>82254.159530999998</v>
       </c>
       <c r="BY15" s="1">
         <v>22.848378</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1480.220000</v>
+        <v>1480.22</v>
       </c>
       <c r="CA15" s="1">
-        <v>-892.849000</v>
+        <v>-892.84900000000005</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>82266.376987</v>
+        <v>82266.376986999996</v>
       </c>
       <c r="CD15" s="1">
-        <v>22.851771</v>
+        <v>22.851770999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1829.310000</v>
+        <v>1829.31</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1384.370000</v>
+        <v>-1384.37</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>82093.241967</v>
+        <v>82093.241966999994</v>
       </c>
       <c r="B16" s="1">
-        <v>22.803678</v>
+        <v>22.803678000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>908.832000</v>
+        <v>908.83199999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-202.754000</v>
+        <v>-202.75399999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>82103.687714</v>
       </c>
       <c r="G16" s="1">
-        <v>22.806580</v>
+        <v>22.80658</v>
       </c>
       <c r="H16" s="1">
-        <v>926.438000</v>
+        <v>926.43799999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-171.933000</v>
+        <v>-171.93299999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>82114.813971</v>
+        <v>82114.813970999996</v>
       </c>
       <c r="L16" s="1">
-        <v>22.809671</v>
+        <v>22.809671000000002</v>
       </c>
       <c r="M16" s="1">
-        <v>950.413000</v>
+        <v>950.41300000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-122.046000</v>
+        <v>-122.04600000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>82125.284517</v>
+        <v>82125.284516999993</v>
       </c>
       <c r="Q16" s="1">
-        <v>22.812579</v>
+        <v>22.812578999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>957.459000</v>
+        <v>957.45899999999995</v>
       </c>
       <c r="S16" s="1">
-        <v>-105.381000</v>
+        <v>-105.381</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>82135.550711</v>
+        <v>82135.550711000004</v>
       </c>
       <c r="V16" s="1">
         <v>22.815431</v>
       </c>
       <c r="W16" s="1">
-        <v>964.337000</v>
+        <v>964.33699999999999</v>
       </c>
       <c r="X16" s="1">
-        <v>-90.105100</v>
+        <v>-90.105099999999993</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>82146.155705</v>
+        <v>82146.155704999997</v>
       </c>
       <c r="AA16" s="1">
-        <v>22.818377</v>
+        <v>22.818377000000002</v>
       </c>
       <c r="AB16" s="1">
-        <v>971.738000</v>
+        <v>971.73800000000006</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.993700</v>
+        <v>-77.993700000000004</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>82156.858843</v>
+        <v>82156.858842999995</v>
       </c>
       <c r="AF16" s="1">
-        <v>22.821350</v>
+        <v>22.821349999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>976.441000</v>
+        <v>976.44100000000003</v>
       </c>
       <c r="AH16" s="1">
-        <v>-75.510600</v>
+        <v>-75.510599999999997</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>82167.378990</v>
+        <v>82167.378989999997</v>
       </c>
       <c r="AK16" s="1">
-        <v>22.824272</v>
+        <v>22.824272000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>983.768000</v>
+        <v>983.76800000000003</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.871200</v>
+        <v>-79.871200000000002</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>82178.224015</v>
       </c>
       <c r="AP16" s="1">
-        <v>22.827284</v>
+        <v>22.827283999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>991.938000</v>
+        <v>991.93799999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.135900</v>
+        <v>-91.135900000000007</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>82188.623137</v>
+        <v>82188.623137000002</v>
       </c>
       <c r="AU16" s="1">
-        <v>22.830173</v>
+        <v>22.830172999999998</v>
       </c>
       <c r="AV16" s="1">
-        <v>1001.820000</v>
+        <v>1001.82</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.464000</v>
+        <v>-108.464</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>82199.678964</v>
+        <v>82199.678964000006</v>
       </c>
       <c r="AZ16" s="1">
-        <v>22.833244</v>
+        <v>22.833244000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1010.140000</v>
+        <v>1010.14</v>
       </c>
       <c r="BB16" s="1">
-        <v>-123.912000</v>
+        <v>-123.91200000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>82210.375188</v>
+        <v>82210.375188000005</v>
       </c>
       <c r="BE16" s="1">
-        <v>22.836215</v>
+        <v>22.836214999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1048.930000</v>
+        <v>1048.93</v>
       </c>
       <c r="BG16" s="1">
-        <v>-194.823000</v>
+        <v>-194.82300000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>82220.885962</v>
       </c>
       <c r="BJ16" s="1">
-        <v>22.839135</v>
+        <v>22.839134999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1115.820000</v>
+        <v>1115.82</v>
       </c>
       <c r="BL16" s="1">
-        <v>-309.487000</v>
+        <v>-309.48700000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>82232.448658</v>
+        <v>82232.448657999994</v>
       </c>
       <c r="BO16" s="1">
         <v>22.842347</v>
       </c>
       <c r="BP16" s="1">
-        <v>1224.180000</v>
+        <v>1224.18</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-489.099000</v>
+        <v>-489.09899999999999</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>82243.780250</v>
+        <v>82243.780249999996</v>
       </c>
       <c r="BT16" s="1">
         <v>22.845495</v>
       </c>
       <c r="BU16" s="1">
-        <v>1345.480000</v>
+        <v>1345.48</v>
       </c>
       <c r="BV16" s="1">
-        <v>-684.794000</v>
+        <v>-684.79399999999998</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>82254.594058</v>
+        <v>82254.594058000002</v>
       </c>
       <c r="BY16" s="1">
-        <v>22.848498</v>
+        <v>22.848497999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1480.210000</v>
+        <v>1480.21</v>
       </c>
       <c r="CA16" s="1">
-        <v>-892.838000</v>
+        <v>-892.83799999999997</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>82266.893820</v>
+        <v>82266.893819999998</v>
       </c>
       <c r="CD16" s="1">
-        <v>22.851915</v>
+        <v>22.851915000000002</v>
       </c>
       <c r="CE16" s="1">
-        <v>1829.570000</v>
+        <v>1829.57</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1385.570000</v>
+        <v>-1385.57</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>82093.581727</v>
+        <v>82093.581726999997</v>
       </c>
       <c r="B17" s="1">
         <v>22.803773</v>
       </c>
       <c r="C17" s="1">
-        <v>908.791000</v>
+        <v>908.79100000000005</v>
       </c>
       <c r="D17" s="1">
-        <v>-202.727000</v>
+        <v>-202.727</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>82104.350369</v>
+        <v>82104.350369000007</v>
       </c>
       <c r="G17" s="1">
-        <v>22.806764</v>
+        <v>22.806764000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>927.217000</v>
+        <v>927.21699999999998</v>
       </c>
       <c r="I17" s="1">
-        <v>-171.834000</v>
+        <v>-171.834</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>82115.195394</v>
+        <v>82115.195393999995</v>
       </c>
       <c r="L17" s="1">
-        <v>22.809776</v>
+        <v>22.809775999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>950.368000</v>
+        <v>950.36800000000005</v>
       </c>
       <c r="N17" s="1">
-        <v>-121.952000</v>
+        <v>-121.952</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>82125.665457</v>
+        <v>82125.665456999996</v>
       </c>
       <c r="Q17" s="1">
-        <v>22.812685</v>
+        <v>22.812684999999998</v>
       </c>
       <c r="R17" s="1">
-        <v>957.483000</v>
+        <v>957.48299999999995</v>
       </c>
       <c r="S17" s="1">
-        <v>-105.439000</v>
+        <v>-105.43899999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>82135.896424</v>
+        <v>82135.896424000006</v>
       </c>
       <c r="V17" s="1">
-        <v>22.815527</v>
+        <v>22.815526999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>964.283000</v>
+        <v>964.28300000000002</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.868600</v>
+        <v>-89.868600000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>82146.383338</v>
       </c>
       <c r="AA17" s="1">
-        <v>22.818440</v>
+        <v>22.818439999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>971.620000</v>
+        <v>971.62</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.985900</v>
+        <v>-77.985900000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>82157.204556</v>
+        <v>82157.204555999997</v>
       </c>
       <c r="AF17" s="1">
-        <v>22.821446</v>
+        <v>22.821446000000002</v>
       </c>
       <c r="AG17" s="1">
-        <v>976.225000</v>
+        <v>976.22500000000002</v>
       </c>
       <c r="AH17" s="1">
-        <v>-75.446500</v>
+        <v>-75.4465</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>82167.800590</v>
+        <v>82167.800589999999</v>
       </c>
       <c r="AK17" s="1">
         <v>22.824389</v>
       </c>
       <c r="AL17" s="1">
-        <v>983.756000</v>
+        <v>983.75599999999997</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.838900</v>
+        <v>-79.838899999999995</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>82178.651598</v>
+        <v>82178.651597999997</v>
       </c>
       <c r="AP17" s="1">
         <v>22.827403</v>
       </c>
       <c r="AQ17" s="1">
-        <v>991.935000</v>
+        <v>991.93499999999995</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.127300</v>
+        <v>-91.127300000000005</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>82188.929170</v>
+        <v>82188.929170000003</v>
       </c>
       <c r="AU17" s="1">
-        <v>22.830258</v>
+        <v>22.830258000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1001.810000</v>
+        <v>1001.81</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.450000</v>
+        <v>-108.45</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>82200.038562</v>
+        <v>82200.038562000002</v>
       </c>
       <c r="AZ17" s="1">
         <v>22.833344</v>
       </c>
       <c r="BA17" s="1">
-        <v>1010.130000</v>
+        <v>1010.13</v>
       </c>
       <c r="BB17" s="1">
-        <v>-123.914000</v>
+        <v>-123.914</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>82210.732836</v>
+        <v>82210.732835999996</v>
       </c>
       <c r="BE17" s="1">
-        <v>22.836315</v>
+        <v>22.836314999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1048.930000</v>
+        <v>1048.93</v>
       </c>
       <c r="BG17" s="1">
-        <v>-194.838000</v>
+        <v>-194.83799999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>82221.264358</v>
       </c>
       <c r="BJ17" s="1">
-        <v>22.839240</v>
+        <v>22.83924</v>
       </c>
       <c r="BK17" s="1">
-        <v>1115.830000</v>
+        <v>1115.83</v>
       </c>
       <c r="BL17" s="1">
-        <v>-309.502000</v>
+        <v>-309.50200000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>82232.847468</v>
+        <v>82232.847468000007</v>
       </c>
       <c r="BO17" s="1">
-        <v>22.842458</v>
+        <v>22.842458000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1224.170000</v>
+        <v>1224.17</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-489.086000</v>
+        <v>-489.08600000000001</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>82244.207305</v>
+        <v>82244.207305000004</v>
       </c>
       <c r="BT17" s="1">
         <v>22.845613</v>
       </c>
       <c r="BU17" s="1">
-        <v>1345.370000</v>
+        <v>1345.37</v>
       </c>
       <c r="BV17" s="1">
-        <v>-684.733000</v>
+        <v>-684.73299999999995</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>82255.015130</v>
+        <v>82255.01513</v>
       </c>
       <c r="BY17" s="1">
-        <v>22.848615</v>
+        <v>22.848614999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1480.210000</v>
+        <v>1480.21</v>
       </c>
       <c r="CA17" s="1">
-        <v>-892.946000</v>
+        <v>-892.94600000000003</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>82267.412666</v>
+        <v>82267.412666000004</v>
       </c>
       <c r="CD17" s="1">
-        <v>22.852059</v>
+        <v>22.852059000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1830.680000</v>
+        <v>1830.68</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1385.360000</v>
+        <v>-1385.36</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>82094.279636</v>
+        <v>82094.279636000007</v>
       </c>
       <c r="B18" s="1">
         <v>22.803967</v>
       </c>
       <c r="C18" s="1">
-        <v>908.770000</v>
+        <v>908.77</v>
       </c>
       <c r="D18" s="1">
-        <v>-202.707000</v>
+        <v>-202.70699999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>82104.723857</v>
+        <v>82104.723857000005</v>
       </c>
       <c r="G18" s="1">
-        <v>22.806868</v>
+        <v>22.806868000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>926.645000</v>
+        <v>926.64499999999998</v>
       </c>
       <c r="I18" s="1">
-        <v>-172.285000</v>
+        <v>-172.285</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>82115.538129</v>
+        <v>82115.538128999993</v>
       </c>
       <c r="L18" s="1">
-        <v>22.809872</v>
+        <v>22.809871999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>950.374000</v>
+        <v>950.37400000000002</v>
       </c>
       <c r="N18" s="1">
-        <v>-121.814000</v>
+        <v>-121.81399999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>82126.015125</v>
+        <v>82126.015125000005</v>
       </c>
       <c r="Q18" s="1">
-        <v>22.812782</v>
+        <v>22.812781999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>957.453000</v>
+        <v>957.45299999999997</v>
       </c>
       <c r="S18" s="1">
-        <v>-105.433000</v>
+        <v>-105.43300000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>82136.241179</v>
+        <v>82136.241179000004</v>
       </c>
       <c r="V18" s="1">
-        <v>22.815623</v>
+        <v>22.815622999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>964.241000</v>
+        <v>964.24099999999999</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.963200</v>
+        <v>-89.963200000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>82146.735000</v>
+        <v>82146.735000000001</v>
       </c>
       <c r="AA18" s="1">
         <v>22.818538</v>
       </c>
       <c r="AB18" s="1">
-        <v>971.588000</v>
+        <v>971.58799999999997</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.941200</v>
+        <v>-77.941199999999995</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>82157.633098</v>
+        <v>82157.633098000006</v>
       </c>
       <c r="AF18" s="1">
         <v>22.821565</v>
       </c>
       <c r="AG18" s="1">
-        <v>976.425000</v>
+        <v>976.42499999999995</v>
       </c>
       <c r="AH18" s="1">
-        <v>-75.609200</v>
+        <v>-75.609200000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>82168.093228</v>
+        <v>82168.093227999998</v>
       </c>
       <c r="AK18" s="1">
-        <v>22.824470</v>
+        <v>22.824470000000002</v>
       </c>
       <c r="AL18" s="1">
-        <v>983.769000</v>
+        <v>983.76900000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.873800</v>
+        <v>-79.873800000000003</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>82178.945724</v>
+        <v>82178.945724000005</v>
       </c>
       <c r="AP18" s="1">
-        <v>22.827485</v>
+        <v>22.827484999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>991.950000</v>
+        <v>991.95</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.136500</v>
+        <v>-91.136499999999998</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>82189.296704</v>
+        <v>82189.296703999993</v>
       </c>
       <c r="AU18" s="1">
-        <v>22.830360</v>
+        <v>22.830359999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1001.820000</v>
+        <v>1001.82</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.460000</v>
+        <v>-108.46</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>82200.398163</v>
+        <v>82200.398163000005</v>
       </c>
       <c r="AZ18" s="1">
         <v>22.833444</v>
       </c>
       <c r="BA18" s="1">
-        <v>1010.150000</v>
+        <v>1010.15</v>
       </c>
       <c r="BB18" s="1">
-        <v>-123.911000</v>
+        <v>-123.911</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>82211.095385</v>
+        <v>82211.095384999993</v>
       </c>
       <c r="BE18" s="1">
-        <v>22.836415</v>
+        <v>22.836414999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1048.930000</v>
+        <v>1048.93</v>
       </c>
       <c r="BG18" s="1">
-        <v>-194.861000</v>
+        <v>-194.86099999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>82222.013317</v>
+        <v>82222.013317000004</v>
       </c>
       <c r="BJ18" s="1">
-        <v>22.839448</v>
+        <v>22.839448000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1115.850000</v>
+        <v>1115.8499999999999</v>
       </c>
       <c r="BL18" s="1">
-        <v>-309.513000</v>
+        <v>-309.51299999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>82233.664342</v>
+        <v>82233.664342000004</v>
       </c>
       <c r="BO18" s="1">
-        <v>22.842685</v>
+        <v>22.842684999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1224.150000</v>
+        <v>1224.1500000000001</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-489.085000</v>
+        <v>-489.08499999999998</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>82244.616503</v>
+        <v>82244.616502999997</v>
       </c>
       <c r="BT18" s="1">
         <v>22.845727</v>
       </c>
       <c r="BU18" s="1">
-        <v>1345.310000</v>
+        <v>1345.31</v>
       </c>
       <c r="BV18" s="1">
-        <v>-684.791000</v>
+        <v>-684.79100000000005</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>82255.435277</v>
+        <v>82255.435276999997</v>
       </c>
       <c r="BY18" s="1">
-        <v>22.848732</v>
+        <v>22.848731999999998</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1480.100000</v>
+        <v>1480.1</v>
       </c>
       <c r="CA18" s="1">
-        <v>-892.997000</v>
+        <v>-892.99699999999996</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>82267.927976</v>
+        <v>82267.927976000006</v>
       </c>
       <c r="CD18" s="1">
-        <v>22.852202</v>
+        <v>22.852201999999998</v>
       </c>
       <c r="CE18" s="1">
-        <v>1830.250000</v>
+        <v>1830.25</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1385.570000</v>
+        <v>-1385.57</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>82094.613406</v>
+        <v>82094.613406000004</v>
       </c>
       <c r="B19" s="1">
-        <v>22.804059</v>
+        <v>22.804058999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>908.723000</v>
+        <v>908.72299999999996</v>
       </c>
       <c r="D19" s="1">
-        <v>-202.809000</v>
+        <v>-202.809</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>82105.068590</v>
+        <v>82105.068589999995</v>
       </c>
       <c r="G19" s="1">
         <v>22.806963</v>
       </c>
       <c r="H19" s="1">
-        <v>926.509000</v>
+        <v>926.50900000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-171.470000</v>
+        <v>-171.47</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>82115.886850</v>
+        <v>82115.886849999995</v>
       </c>
       <c r="L19" s="1">
-        <v>22.809969</v>
+        <v>22.809968999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>950.426000</v>
+        <v>950.42600000000004</v>
       </c>
       <c r="N19" s="1">
-        <v>-121.903000</v>
+        <v>-121.90300000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>82126.363811</v>
+        <v>82126.363811000003</v>
       </c>
       <c r="Q19" s="1">
-        <v>22.812879</v>
+        <v>22.812878999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>957.422000</v>
+        <v>957.42200000000003</v>
       </c>
       <c r="S19" s="1">
-        <v>-105.421000</v>
+        <v>-105.42100000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>82136.660263</v>
+        <v>82136.660262999998</v>
       </c>
       <c r="V19" s="1">
-        <v>22.815739</v>
+        <v>22.815739000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>964.201000</v>
+        <v>964.20100000000002</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.998500</v>
+        <v>-89.998500000000007</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>82147.429896</v>
+        <v>82147.429896000001</v>
       </c>
       <c r="AA19" s="1">
         <v>22.818731</v>
       </c>
       <c r="AB19" s="1">
-        <v>971.689000</v>
+        <v>971.68899999999996</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.893700</v>
+        <v>-77.893699999999995</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>82157.913355</v>
+        <v>82157.913354999997</v>
       </c>
       <c r="AF19" s="1">
-        <v>22.821643</v>
+        <v>22.821643000000002</v>
       </c>
       <c r="AG19" s="1">
-        <v>976.421000</v>
+        <v>976.42100000000005</v>
       </c>
       <c r="AH19" s="1">
-        <v>-75.579300</v>
+        <v>-75.579300000000003</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>82168.443405</v>
+        <v>82168.443404999998</v>
       </c>
       <c r="AK19" s="1">
-        <v>22.824568</v>
+        <v>22.824567999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>983.768000</v>
+        <v>983.76800000000003</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.881000</v>
+        <v>-79.881</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>82179.305331</v>
+        <v>82179.305330999996</v>
       </c>
       <c r="AP19" s="1">
-        <v>22.827585</v>
+        <v>22.827584999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>991.960000</v>
+        <v>991.96</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.150300</v>
+        <v>-91.150300000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>82189.659315</v>
+        <v>82189.659314999997</v>
       </c>
       <c r="AU19" s="1">
         <v>22.830461</v>
       </c>
       <c r="AV19" s="1">
-        <v>1001.830000</v>
+        <v>1001.83</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.469000</v>
+        <v>-108.46899999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>82201.124833</v>
+        <v>82201.124832999994</v>
       </c>
       <c r="AZ19" s="1">
-        <v>22.833646</v>
+        <v>22.833646000000002</v>
       </c>
       <c r="BA19" s="1">
-        <v>1010.160000</v>
+        <v>1010.16</v>
       </c>
       <c r="BB19" s="1">
-        <v>-123.917000</v>
+        <v>-123.917</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>82211.816067</v>
+        <v>82211.816067000007</v>
       </c>
       <c r="BE19" s="1">
-        <v>22.836616</v>
+        <v>22.836615999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1048.950000</v>
+        <v>1048.95</v>
       </c>
       <c r="BG19" s="1">
-        <v>-194.868000</v>
+        <v>-194.86799999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>82222.391270</v>
+        <v>82222.391269999993</v>
       </c>
       <c r="BJ19" s="1">
-        <v>22.839553</v>
+        <v>22.839552999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1115.820000</v>
+        <v>1115.82</v>
       </c>
       <c r="BL19" s="1">
-        <v>-309.535000</v>
+        <v>-309.53500000000003</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>82234.060678</v>
+        <v>82234.060677999994</v>
       </c>
       <c r="BO19" s="1">
-        <v>22.842795</v>
+        <v>22.842794999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1224.180000</v>
+        <v>1224.18</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-489.116000</v>
+        <v>-489.11599999999999</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>82245.049511</v>
+        <v>82245.049511000005</v>
       </c>
       <c r="BT19" s="1">
-        <v>22.845847</v>
+        <v>22.845846999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1345.220000</v>
+        <v>1345.22</v>
       </c>
       <c r="BV19" s="1">
-        <v>-684.766000</v>
+        <v>-684.76599999999996</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>82256.204536</v>
+        <v>82256.204536000005</v>
       </c>
       <c r="BY19" s="1">
-        <v>22.848946</v>
+        <v>22.848946000000002</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1480.230000</v>
+        <v>1480.23</v>
       </c>
       <c r="CA19" s="1">
-        <v>-892.999000</v>
+        <v>-892.99900000000002</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>82268.482008</v>
+        <v>82268.482008000006</v>
       </c>
       <c r="CD19" s="1">
         <v>22.852356</v>
       </c>
       <c r="CE19" s="1">
-        <v>1829.540000</v>
+        <v>1829.54</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1385.690000</v>
+        <v>-1385.69</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>82094.952173</v>
+        <v>82094.952172999998</v>
       </c>
       <c r="B20" s="1">
-        <v>22.804153</v>
+        <v>22.804152999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>908.705000</v>
+        <v>908.70500000000004</v>
       </c>
       <c r="D20" s="1">
-        <v>-202.733000</v>
+        <v>-202.733</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>82105.412305</v>
+        <v>82105.412305000005</v>
       </c>
       <c r="G20" s="1">
-        <v>22.807059</v>
+        <v>22.807058999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>926.679000</v>
+        <v>926.67899999999997</v>
       </c>
       <c r="I20" s="1">
-        <v>-171.742000</v>
+        <v>-171.74199999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>82116.315856</v>
+        <v>82116.315856000001</v>
       </c>
       <c r="L20" s="1">
         <v>22.810088</v>
       </c>
       <c r="M20" s="1">
-        <v>950.565000</v>
+        <v>950.56500000000005</v>
       </c>
       <c r="N20" s="1">
-        <v>-122.105000</v>
+        <v>-122.105</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>82126.790371</v>
+        <v>82126.790370999996</v>
       </c>
       <c r="Q20" s="1">
-        <v>22.812997</v>
+        <v>22.812996999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>957.456000</v>
+        <v>957.45600000000002</v>
       </c>
       <c r="S20" s="1">
-        <v>-105.389000</v>
+        <v>-105.389</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>82136.940038</v>
+        <v>82136.940038000001</v>
       </c>
       <c r="V20" s="1">
-        <v>22.815817</v>
+        <v>22.815816999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>964.231000</v>
+        <v>964.23099999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.978100</v>
+        <v>-89.978099999999998</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>82147.782088</v>
+        <v>82147.782088000007</v>
       </c>
       <c r="AA20" s="1">
         <v>22.818828</v>
       </c>
       <c r="AB20" s="1">
-        <v>971.606000</v>
+        <v>971.60599999999999</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.940000</v>
+        <v>-77.94</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>82158.256073</v>
+        <v>82158.256072999997</v>
       </c>
       <c r="AF20" s="1">
         <v>22.821738</v>
       </c>
       <c r="AG20" s="1">
-        <v>976.455000</v>
+        <v>976.45500000000004</v>
       </c>
       <c r="AH20" s="1">
-        <v>-75.559300</v>
+        <v>-75.559299999999993</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>82168.792123</v>
+        <v>82168.792123000007</v>
       </c>
       <c r="AK20" s="1">
-        <v>22.824664</v>
+        <v>22.824663999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>983.755000</v>
+        <v>983.755</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.847700</v>
+        <v>-79.847700000000003</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>82179.665885</v>
+        <v>82179.665884999995</v>
       </c>
       <c r="AP20" s="1">
-        <v>22.827685</v>
+        <v>22.827684999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>991.943000</v>
+        <v>991.94299999999998</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.116500</v>
+        <v>-91.116500000000002</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>82190.390383</v>
+        <v>82190.390383000005</v>
       </c>
       <c r="AU20" s="1">
-        <v>22.830664</v>
+        <v>22.830663999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1001.830000</v>
+        <v>1001.83</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.451000</v>
+        <v>-108.45099999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>82201.500801</v>
+        <v>82201.500801000002</v>
       </c>
       <c r="AZ20" s="1">
-        <v>22.833750</v>
+        <v>22.833749999999998</v>
       </c>
       <c r="BA20" s="1">
-        <v>1010.140000</v>
+        <v>1010.14</v>
       </c>
       <c r="BB20" s="1">
-        <v>-123.915000</v>
+        <v>-123.91500000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>82212.207907</v>
+        <v>82212.207907000004</v>
       </c>
       <c r="BE20" s="1">
         <v>22.836724</v>
       </c>
       <c r="BF20" s="1">
-        <v>1048.950000</v>
+        <v>1048.95</v>
       </c>
       <c r="BG20" s="1">
-        <v>-194.842000</v>
+        <v>-194.84200000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>82222.768228</v>
+        <v>82222.768228000001</v>
       </c>
       <c r="BJ20" s="1">
         <v>22.839658</v>
       </c>
       <c r="BK20" s="1">
-        <v>1115.850000</v>
+        <v>1115.8499999999999</v>
       </c>
       <c r="BL20" s="1">
-        <v>-309.500000</v>
+        <v>-309.5</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>82234.787780</v>
+        <v>82234.787779999999</v>
       </c>
       <c r="BO20" s="1">
         <v>22.842997</v>
       </c>
       <c r="BP20" s="1">
-        <v>1224.180000</v>
+        <v>1224.18</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-489.075000</v>
+        <v>-489.07499999999999</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>82245.786597</v>
+        <v>82245.786596999998</v>
       </c>
       <c r="BT20" s="1">
         <v>22.846052</v>
       </c>
       <c r="BU20" s="1">
-        <v>1345.140000</v>
+        <v>1345.14</v>
       </c>
       <c r="BV20" s="1">
-        <v>-684.866000</v>
+        <v>-684.86599999999999</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>82256.329560</v>
+        <v>82256.329559999998</v>
       </c>
       <c r="BY20" s="1">
-        <v>22.848980</v>
+        <v>22.848980000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1480.230000</v>
+        <v>1480.23</v>
       </c>
       <c r="CA20" s="1">
-        <v>-892.831000</v>
+        <v>-892.83100000000002</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>82269.008263</v>
+        <v>82269.008262999996</v>
       </c>
       <c r="CD20" s="1">
-        <v>22.852502</v>
+        <v>22.852502000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>1830.900000</v>
+        <v>1830.9</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1385.130000</v>
+        <v>-1385.13</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>82095.377778</v>
+        <v>82095.377777999995</v>
       </c>
       <c r="B21" s="1">
-        <v>22.804272</v>
+        <v>22.804272000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>908.891000</v>
+        <v>908.89099999999996</v>
       </c>
       <c r="D21" s="1">
-        <v>-202.642000</v>
+        <v>-202.642</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>82105.834400</v>
+        <v>82105.834400000007</v>
       </c>
       <c r="G21" s="1">
-        <v>22.807176</v>
+        <v>22.807175999999998</v>
       </c>
       <c r="H21" s="1">
-        <v>926.802000</v>
+        <v>926.80200000000002</v>
       </c>
       <c r="I21" s="1">
-        <v>-171.943000</v>
+        <v>-171.94300000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>82116.566833</v>
+        <v>82116.566833000004</v>
       </c>
       <c r="L21" s="1">
         <v>22.810157</v>
       </c>
       <c r="M21" s="1">
-        <v>950.367000</v>
+        <v>950.36699999999996</v>
       </c>
       <c r="N21" s="1">
-        <v>-121.821000</v>
+        <v>-121.821</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>82127.070116</v>
+        <v>82127.070116000003</v>
       </c>
       <c r="Q21" s="1">
-        <v>22.813075</v>
+        <v>22.813075000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>957.456000</v>
+        <v>957.45600000000002</v>
       </c>
       <c r="S21" s="1">
-        <v>-105.361000</v>
+        <v>-105.361</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>82137.285718</v>
+        <v>82137.285717999999</v>
       </c>
       <c r="V21" s="1">
-        <v>22.815913</v>
+        <v>22.815912999999998</v>
       </c>
       <c r="W21" s="1">
-        <v>964.196000</v>
+        <v>964.19600000000003</v>
       </c>
       <c r="X21" s="1">
-        <v>-90.117300</v>
+        <v>-90.1173</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>82148.129783</v>
+        <v>82148.129782999997</v>
       </c>
       <c r="AA21" s="1">
         <v>22.818925</v>
       </c>
       <c r="AB21" s="1">
-        <v>971.676000</v>
+        <v>971.67600000000004</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.990700</v>
+        <v>-77.990700000000004</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>82158.597849</v>
+        <v>82158.597848999998</v>
       </c>
       <c r="AF21" s="1">
-        <v>22.821833</v>
+        <v>22.821833000000002</v>
       </c>
       <c r="AG21" s="1">
-        <v>976.460000</v>
+        <v>976.46</v>
       </c>
       <c r="AH21" s="1">
-        <v>-75.455100</v>
+        <v>-75.455100000000002</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>82169.488010</v>
+        <v>82169.488010000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>22.824858</v>
+        <v>22.824857999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>983.792000</v>
+        <v>983.79200000000003</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.843600</v>
+        <v>-79.843599999999995</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>82180.382604</v>
+        <v>82180.382603999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>22.827884</v>
+        <v>22.827884000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>991.930000</v>
+        <v>991.93</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.125000</v>
+        <v>-91.125</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>82190.771890</v>
+        <v>82190.771890000004</v>
       </c>
       <c r="AU21" s="1">
-        <v>22.830770</v>
+        <v>22.830770000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1001.830000</v>
+        <v>1001.83</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.466000</v>
+        <v>-108.46599999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>82201.878721</v>
+        <v>82201.878721000001</v>
       </c>
       <c r="AZ21" s="1">
         <v>22.833855</v>
       </c>
       <c r="BA21" s="1">
-        <v>1010.150000</v>
+        <v>1010.15</v>
       </c>
       <c r="BB21" s="1">
-        <v>-123.930000</v>
+        <v>-123.93</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>82212.567010</v>
+        <v>82212.567009999999</v>
       </c>
       <c r="BE21" s="1">
         <v>22.836824</v>
       </c>
       <c r="BF21" s="1">
-        <v>1048.940000</v>
+        <v>1048.94</v>
       </c>
       <c r="BG21" s="1">
-        <v>-194.856000</v>
+        <v>-194.85599999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>82223.459155</v>
+        <v>82223.459155000004</v>
       </c>
       <c r="BJ21" s="1">
-        <v>22.839850</v>
+        <v>22.839849999999998</v>
       </c>
       <c r="BK21" s="1">
-        <v>1115.830000</v>
+        <v>1115.83</v>
       </c>
       <c r="BL21" s="1">
-        <v>-309.496000</v>
+        <v>-309.49599999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>82235.294691</v>
+        <v>82235.294691000003</v>
       </c>
       <c r="BO21" s="1">
-        <v>22.843137</v>
+        <v>22.843136999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1224.180000</v>
+        <v>1224.18</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-489.124000</v>
+        <v>-489.12400000000002</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>82245.921973</v>
+        <v>82245.921973000004</v>
       </c>
       <c r="BT21" s="1">
-        <v>22.846089</v>
+        <v>22.846088999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1345.130000</v>
+        <v>1345.13</v>
       </c>
       <c r="BV21" s="1">
-        <v>-684.953000</v>
+        <v>-684.95299999999997</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>82256.743191</v>
+        <v>82256.743191000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>22.849095</v>
+        <v>22.849094999999998</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1480.190000</v>
+        <v>1480.19</v>
       </c>
       <c r="CA21" s="1">
-        <v>-892.987000</v>
+        <v>-892.98699999999997</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>82269.529559</v>
+        <v>82269.529559000002</v>
       </c>
       <c r="CD21" s="1">
-        <v>22.852647</v>
+        <v>22.852647000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1829.860000</v>
+        <v>1829.86</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1383.900000</v>
+        <v>-1383.9</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>82095.653517</v>
+        <v>82095.653516999999</v>
       </c>
       <c r="B22" s="1">
-        <v>22.804348</v>
+        <v>22.804348000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>908.727000</v>
+        <v>908.72699999999998</v>
       </c>
       <c r="D22" s="1">
-        <v>-202.776000</v>
+        <v>-202.77600000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>82106.108689</v>
+        <v>82106.108689000001</v>
       </c>
       <c r="G22" s="1">
-        <v>22.807252</v>
+        <v>22.807251999999998</v>
       </c>
       <c r="H22" s="1">
-        <v>926.450000</v>
+        <v>926.45</v>
       </c>
       <c r="I22" s="1">
-        <v>-172.094000</v>
+        <v>-172.09399999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>82116.921968</v>
+        <v>82116.921967999995</v>
       </c>
       <c r="L22" s="1">
-        <v>22.810256</v>
+        <v>22.810255999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>950.554000</v>
+        <v>950.55399999999997</v>
       </c>
       <c r="N22" s="1">
-        <v>-122.058000</v>
+        <v>-122.05800000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>82127.421778</v>
+        <v>82127.421778000004</v>
       </c>
       <c r="Q22" s="1">
-        <v>22.813173</v>
+        <v>22.813172999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>957.466000</v>
+        <v>957.46600000000001</v>
       </c>
       <c r="S22" s="1">
-        <v>-105.386000</v>
+        <v>-105.386</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>82137.628452</v>
+        <v>82137.628452000004</v>
       </c>
       <c r="V22" s="1">
         <v>22.816008</v>
       </c>
       <c r="W22" s="1">
-        <v>964.204000</v>
+        <v>964.20399999999995</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.943200</v>
+        <v>-89.943200000000004</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>82148.826663</v>
       </c>
       <c r="AA22" s="1">
-        <v>22.819119</v>
+        <v>22.819119000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>971.635000</v>
+        <v>971.63499999999999</v>
       </c>
       <c r="AC22" s="1">
-        <v>-78.017700</v>
+        <v>-78.017700000000005</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>82159.285272</v>
+        <v>82159.285271999994</v>
       </c>
       <c r="AF22" s="1">
-        <v>22.822024</v>
+        <v>22.822023999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>976.359000</v>
+        <v>976.35900000000004</v>
       </c>
       <c r="AH22" s="1">
-        <v>-75.540700</v>
+        <v>-75.540700000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>82169.836699</v>
+        <v>82169.836699000007</v>
       </c>
       <c r="AK22" s="1">
-        <v>22.824955</v>
+        <v>22.824954999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>983.753000</v>
+        <v>983.75300000000004</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.859600</v>
+        <v>-79.8596</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>82180.743693</v>
+        <v>82180.743692999997</v>
       </c>
       <c r="AP22" s="1">
-        <v>22.827984</v>
+        <v>22.827984000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>991.945000</v>
+        <v>991.94500000000005</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.135000</v>
+        <v>-91.135000000000005</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>82191.139342</v>
+        <v>82191.139341999995</v>
       </c>
       <c r="AU22" s="1">
-        <v>22.830872</v>
+        <v>22.830871999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1001.830000</v>
+        <v>1001.83</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.459000</v>
+        <v>-108.459</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>82202.548815</v>
+        <v>82202.548815000002</v>
       </c>
       <c r="AZ22" s="1">
-        <v>22.834041</v>
+        <v>22.834040999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1010.140000</v>
+        <v>1010.14</v>
       </c>
       <c r="BB22" s="1">
-        <v>-123.904000</v>
+        <v>-123.904</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>82213.242560</v>
+        <v>82213.242559999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>22.837012</v>
+        <v>22.837012000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1048.930000</v>
+        <v>1048.93</v>
       </c>
       <c r="BG22" s="1">
-        <v>-194.853000</v>
+        <v>-194.85300000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>82223.890179</v>
+        <v>82223.890178999995</v>
       </c>
       <c r="BJ22" s="1">
         <v>22.839969</v>
       </c>
       <c r="BK22" s="1">
-        <v>1115.860000</v>
+        <v>1115.8599999999999</v>
       </c>
       <c r="BL22" s="1">
-        <v>-309.520000</v>
+        <v>-309.52</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>82235.710339</v>
+        <v>82235.710338999997</v>
       </c>
       <c r="BO22" s="1">
-        <v>22.843253</v>
+        <v>22.843253000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1224.150000</v>
+        <v>1224.1500000000001</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-489.089000</v>
+        <v>-489.089</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>82246.335669</v>
+        <v>82246.335668999993</v>
       </c>
       <c r="BT22" s="1">
         <v>22.846204</v>
       </c>
       <c r="BU22" s="1">
-        <v>1345.070000</v>
+        <v>1345.07</v>
       </c>
       <c r="BV22" s="1">
-        <v>-685.066000</v>
+        <v>-685.06600000000003</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>82257.200006</v>
+        <v>82257.200005999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>22.849222</v>
+        <v>22.849222000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1480.210000</v>
+        <v>1480.21</v>
       </c>
       <c r="CA22" s="1">
-        <v>-892.937000</v>
+        <v>-892.93700000000001</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>82270.048377</v>
+        <v>82270.048376999999</v>
       </c>
       <c r="CD22" s="1">
         <v>22.852791</v>
       </c>
       <c r="CE22" s="1">
-        <v>1829.210000</v>
+        <v>1829.21</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1385.200000</v>
+        <v>-1385.2</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>82095.996252</v>
+        <v>82095.996251999997</v>
       </c>
       <c r="B23" s="1">
-        <v>22.804443</v>
+        <v>22.804442999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>908.864000</v>
+        <v>908.86400000000003</v>
       </c>
       <c r="D23" s="1">
-        <v>-202.735000</v>
+        <v>-202.73500000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>82106.454895</v>
+        <v>82106.454895000003</v>
       </c>
       <c r="G23" s="1">
-        <v>22.807349</v>
+        <v>22.807348999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>926.836000</v>
+        <v>926.83600000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-171.718000</v>
+        <v>-171.71799999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>82117.269663</v>
+        <v>82117.269662999999</v>
       </c>
       <c r="L23" s="1">
-        <v>22.810353</v>
+        <v>22.810352999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>950.378000</v>
+        <v>950.37800000000004</v>
       </c>
       <c r="N23" s="1">
-        <v>-121.851000</v>
+        <v>-121.851</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>82127.768978</v>
+        <v>82127.768977999993</v>
       </c>
       <c r="Q23" s="1">
-        <v>22.813269</v>
+        <v>22.813268999999998</v>
       </c>
       <c r="R23" s="1">
-        <v>957.452000</v>
+        <v>957.452</v>
       </c>
       <c r="S23" s="1">
-        <v>-105.408000</v>
+        <v>-105.408</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>82138.313924</v>
+        <v>82138.313924000002</v>
       </c>
       <c r="V23" s="1">
         <v>22.816198</v>
       </c>
       <c r="W23" s="1">
-        <v>964.257000</v>
+        <v>964.25699999999995</v>
       </c>
       <c r="X23" s="1">
-        <v>-90.003100</v>
+        <v>-90.003100000000003</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>82149.175813</v>
+        <v>82149.175812999994</v>
       </c>
       <c r="AA23" s="1">
-        <v>22.819216</v>
+        <v>22.819216000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>971.622000</v>
+        <v>971.62199999999996</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.978500</v>
+        <v>-77.978499999999997</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>82159.629496</v>
+        <v>82159.629495999994</v>
       </c>
       <c r="AF23" s="1">
-        <v>22.822119</v>
+        <v>22.822119000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>976.324000</v>
+        <v>976.32399999999996</v>
       </c>
       <c r="AH23" s="1">
-        <v>-75.564900</v>
+        <v>-75.564899999999994</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>82170.186841</v>
+        <v>82170.186841000002</v>
       </c>
       <c r="AK23" s="1">
-        <v>22.825052</v>
+        <v>22.825051999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>983.768000</v>
+        <v>983.76800000000003</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.852700</v>
+        <v>-79.852699999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>82181.107261</v>
+        <v>82181.107260999997</v>
       </c>
       <c r="AP23" s="1">
-        <v>22.828085</v>
+        <v>22.828085000000002</v>
       </c>
       <c r="AQ23" s="1">
-        <v>991.940000</v>
+        <v>991.94</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.124600</v>
+        <v>-91.124600000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>82191.815391</v>
+        <v>82191.815390999996</v>
       </c>
       <c r="AU23" s="1">
-        <v>22.831060</v>
+        <v>22.831060000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1001.840000</v>
+        <v>1001.84</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.483000</v>
+        <v>-108.483</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>82202.961486</v>
@@ -6028,195 +6444,195 @@
         <v>22.834156</v>
       </c>
       <c r="BA23" s="1">
-        <v>1010.180000</v>
+        <v>1010.18</v>
       </c>
       <c r="BB23" s="1">
-        <v>-123.899000</v>
+        <v>-123.899</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>82213.680528</v>
+        <v>82213.680527999997</v>
       </c>
       <c r="BE23" s="1">
-        <v>22.837133</v>
+        <v>22.837133000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1048.940000</v>
+        <v>1048.94</v>
       </c>
       <c r="BG23" s="1">
-        <v>-194.861000</v>
+        <v>-194.86099999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>82224.266642</v>
+        <v>82224.266642000002</v>
       </c>
       <c r="BJ23" s="1">
-        <v>22.840074</v>
+        <v>22.840074000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1115.850000</v>
+        <v>1115.8499999999999</v>
       </c>
       <c r="BL23" s="1">
-        <v>-309.528000</v>
+        <v>-309.52800000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>82236.109122</v>
+        <v>82236.109121999994</v>
       </c>
       <c r="BO23" s="1">
-        <v>22.843364</v>
+        <v>22.843364000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1224.170000</v>
+        <v>1224.17</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-489.119000</v>
+        <v>-489.11900000000003</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>82246.758261</v>
+        <v>82246.758260999995</v>
       </c>
       <c r="BT23" s="1">
-        <v>22.846322</v>
+        <v>22.846322000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1345.170000</v>
+        <v>1345.17</v>
       </c>
       <c r="BV23" s="1">
-        <v>-685.098000</v>
+        <v>-685.09799999999996</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>82257.648389</v>
+        <v>82257.648388999994</v>
       </c>
       <c r="BY23" s="1">
-        <v>22.849347</v>
+        <v>22.849347000000002</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1480.280000</v>
+        <v>1480.28</v>
       </c>
       <c r="CA23" s="1">
-        <v>-892.891000</v>
+        <v>-892.89099999999996</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>82270.564213</v>
+        <v>82270.564213000005</v>
       </c>
       <c r="CD23" s="1">
-        <v>22.852935</v>
+        <v>22.852934999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1830.670000</v>
+        <v>1830.67</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1385.460000</v>
+        <v>-1385.46</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>82096.335515</v>
+        <v>82096.335514999999</v>
       </c>
       <c r="B24" s="1">
-        <v>22.804538</v>
+        <v>22.804538000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>908.900000</v>
+        <v>908.9</v>
       </c>
       <c r="D24" s="1">
-        <v>-202.667000</v>
+        <v>-202.667</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>82106.800109</v>
+        <v>82106.800109000003</v>
       </c>
       <c r="G24" s="1">
         <v>22.807444</v>
       </c>
       <c r="H24" s="1">
-        <v>926.641000</v>
+        <v>926.64099999999996</v>
       </c>
       <c r="I24" s="1">
-        <v>-171.620000</v>
+        <v>-171.62</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>82117.962079</v>
+        <v>82117.962079000004</v>
       </c>
       <c r="L24" s="1">
-        <v>22.810545</v>
+        <v>22.810545000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>950.451000</v>
+        <v>950.45100000000002</v>
       </c>
       <c r="N24" s="1">
-        <v>-121.921000</v>
+        <v>-121.92100000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>82128.464401</v>
+        <v>82128.464401000005</v>
       </c>
       <c r="Q24" s="1">
-        <v>22.813462</v>
+        <v>22.813462000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>957.453000</v>
+        <v>957.45299999999997</v>
       </c>
       <c r="S24" s="1">
-        <v>-105.443000</v>
+        <v>-105.443</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>82138.657683</v>
+        <v>82138.657682999998</v>
       </c>
       <c r="V24" s="1">
-        <v>22.816294</v>
+        <v>22.816293999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>964.275000</v>
+        <v>964.27499999999998</v>
       </c>
       <c r="X24" s="1">
-        <v>-90.034500</v>
+        <v>-90.034499999999994</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>82149.523510</v>
+        <v>82149.523509999999</v>
       </c>
       <c r="AA24" s="1">
         <v>22.819312</v>
       </c>
       <c r="AB24" s="1">
-        <v>971.551000</v>
+        <v>971.55100000000004</v>
       </c>
       <c r="AC24" s="1">
-        <v>-78.017400</v>
+        <v>-78.017399999999995</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>82159.972727</v>
@@ -6225,240 +6641,240 @@
         <v>22.822215</v>
       </c>
       <c r="AG24" s="1">
-        <v>976.503000</v>
+        <v>976.50300000000004</v>
       </c>
       <c r="AH24" s="1">
-        <v>-75.462900</v>
+        <v>-75.462900000000005</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>82170.841096</v>
+        <v>82170.841096000004</v>
       </c>
       <c r="AK24" s="1">
-        <v>22.825234</v>
+        <v>22.825233999999998</v>
       </c>
       <c r="AL24" s="1">
-        <v>983.752000</v>
+        <v>983.75199999999995</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.879500</v>
+        <v>-79.879499999999993</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>82181.552172</v>
+        <v>82181.552171999996</v>
       </c>
       <c r="AP24" s="1">
-        <v>22.828209</v>
+        <v>22.828209000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>991.940000</v>
+        <v>991.94</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.142400</v>
+        <v>-91.142399999999995</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>82192.257324</v>
+        <v>82192.257324000006</v>
       </c>
       <c r="AU24" s="1">
-        <v>22.831183</v>
+        <v>22.831182999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1001.840000</v>
+        <v>1001.84</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.458000</v>
+        <v>-108.458</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>82203.341422</v>
+        <v>82203.341421999998</v>
       </c>
       <c r="AZ24" s="1">
-        <v>22.834262</v>
+        <v>22.834261999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1010.150000</v>
+        <v>1010.15</v>
       </c>
       <c r="BB24" s="1">
-        <v>-123.937000</v>
+        <v>-123.937</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>82214.039137</v>
       </c>
       <c r="BE24" s="1">
-        <v>22.837233</v>
+        <v>22.837233000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1048.930000</v>
+        <v>1048.93</v>
       </c>
       <c r="BG24" s="1">
-        <v>-194.849000</v>
+        <v>-194.84899999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>82224.641157</v>
+        <v>82224.641157000005</v>
       </c>
       <c r="BJ24" s="1">
-        <v>22.840178</v>
+        <v>22.840178000000002</v>
       </c>
       <c r="BK24" s="1">
-        <v>1115.840000</v>
+        <v>1115.8399999999999</v>
       </c>
       <c r="BL24" s="1">
-        <v>-309.526000</v>
+        <v>-309.52600000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>82236.534483</v>
+        <v>82236.534482999996</v>
       </c>
       <c r="BO24" s="1">
-        <v>22.843482</v>
+        <v>22.843482000000002</v>
       </c>
       <c r="BP24" s="1">
-        <v>1224.170000</v>
+        <v>1224.17</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-489.122000</v>
+        <v>-489.12200000000001</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>82247.204132</v>
+        <v>82247.204131999999</v>
       </c>
       <c r="BT24" s="1">
         <v>22.846446</v>
       </c>
       <c r="BU24" s="1">
-        <v>1345.110000</v>
+        <v>1345.11</v>
       </c>
       <c r="BV24" s="1">
-        <v>-685.288000</v>
+        <v>-685.28800000000001</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>82258.068997</v>
+        <v>82258.068996999995</v>
       </c>
       <c r="BY24" s="1">
-        <v>22.849464</v>
+        <v>22.849464000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1480.190000</v>
+        <v>1480.19</v>
       </c>
       <c r="CA24" s="1">
-        <v>-892.819000</v>
+        <v>-892.81899999999996</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>82271.082069</v>
+        <v>82271.082068999996</v>
       </c>
       <c r="CD24" s="1">
         <v>22.853078</v>
       </c>
       <c r="CE24" s="1">
-        <v>1830.430000</v>
+        <v>1830.43</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1383.920000</v>
+        <v>-1383.92</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>82097.019499</v>
+        <v>82097.019499000002</v>
       </c>
       <c r="B25" s="1">
-        <v>22.804728</v>
+        <v>22.804728000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>908.689000</v>
+        <v>908.68899999999996</v>
       </c>
       <c r="D25" s="1">
-        <v>-202.772000</v>
+        <v>-202.77199999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>82107.486078</v>
+        <v>82107.486078000002</v>
       </c>
       <c r="G25" s="1">
-        <v>22.807635</v>
+        <v>22.807635000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>926.625000</v>
+        <v>926.625</v>
       </c>
       <c r="I25" s="1">
-        <v>-171.760000</v>
+        <v>-171.76</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>82118.307823</v>
+        <v>82118.307822999996</v>
       </c>
       <c r="L25" s="1">
         <v>22.810641</v>
       </c>
       <c r="M25" s="1">
-        <v>950.396000</v>
+        <v>950.39599999999996</v>
       </c>
       <c r="N25" s="1">
-        <v>-121.910000</v>
+        <v>-121.91</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>82128.816561</v>
       </c>
       <c r="Q25" s="1">
-        <v>22.813560</v>
+        <v>22.813559999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>957.400000</v>
+        <v>957.4</v>
       </c>
       <c r="S25" s="1">
-        <v>-105.403000</v>
+        <v>-105.40300000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>82139.001379</v>
+        <v>82139.001378999994</v>
       </c>
       <c r="V25" s="1">
-        <v>22.816389</v>
+        <v>22.816389000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>964.217000</v>
+        <v>964.21699999999998</v>
       </c>
       <c r="X25" s="1">
-        <v>-90.034000</v>
+        <v>-90.034000000000006</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>82150.183716</v>
@@ -6467,437 +6883,438 @@
         <v>22.819495</v>
       </c>
       <c r="AB25" s="1">
-        <v>971.597000</v>
+        <v>971.59699999999998</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.899800</v>
+        <v>-77.899799999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>82160.627446</v>
+        <v>82160.627445999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>22.822397</v>
+        <v>22.822396999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>976.482000</v>
+        <v>976.48199999999997</v>
       </c>
       <c r="AH25" s="1">
-        <v>-75.563900</v>
+        <v>-75.563900000000004</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>82171.230424</v>
+        <v>82171.230423999994</v>
       </c>
       <c r="AK25" s="1">
-        <v>22.825342</v>
+        <v>22.825341999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>983.755000</v>
+        <v>983.755</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.849600</v>
+        <v>-79.849599999999995</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>82181.826458</v>
+        <v>82181.826457999996</v>
       </c>
       <c r="AP25" s="1">
-        <v>22.828285</v>
+        <v>22.828285000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>991.937000</v>
+        <v>991.93700000000001</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.130200</v>
+        <v>-91.130200000000002</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>82192.622380</v>
+        <v>82192.622380000001</v>
       </c>
       <c r="AU25" s="1">
         <v>22.831284</v>
       </c>
       <c r="AV25" s="1">
-        <v>1001.840000</v>
+        <v>1001.84</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.466000</v>
+        <v>-108.46599999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>82203.720862</v>
+        <v>82203.720862000002</v>
       </c>
       <c r="AZ25" s="1">
         <v>22.834367</v>
       </c>
       <c r="BA25" s="1">
-        <v>1010.140000</v>
+        <v>1010.14</v>
       </c>
       <c r="BB25" s="1">
-        <v>-123.914000</v>
+        <v>-123.914</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>82214.402703</v>
       </c>
       <c r="BE25" s="1">
-        <v>22.837334</v>
+        <v>22.837333999999998</v>
       </c>
       <c r="BF25" s="1">
-        <v>1048.960000</v>
+        <v>1048.96</v>
       </c>
       <c r="BG25" s="1">
-        <v>-194.856000</v>
+        <v>-194.85599999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>82225.075617</v>
+        <v>82225.075616999995</v>
       </c>
       <c r="BJ25" s="1">
-        <v>22.840299</v>
+        <v>22.840299000000002</v>
       </c>
       <c r="BK25" s="1">
-        <v>1115.830000</v>
+        <v>1115.83</v>
       </c>
       <c r="BL25" s="1">
-        <v>-309.498000</v>
+        <v>-309.49799999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>82236.928514</v>
+        <v>82236.928513999999</v>
       </c>
       <c r="BO25" s="1">
         <v>22.843591</v>
       </c>
       <c r="BP25" s="1">
-        <v>1224.180000</v>
+        <v>1224.18</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-489.134000</v>
+        <v>-489.13400000000001</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>82247.592003</v>
+        <v>82247.592002999998</v>
       </c>
       <c r="BT25" s="1">
         <v>22.846553</v>
       </c>
       <c r="BU25" s="1">
-        <v>1345.240000</v>
+        <v>1345.24</v>
       </c>
       <c r="BV25" s="1">
-        <v>-685.225000</v>
+        <v>-685.22500000000002</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>82258.491589</v>
+        <v>82258.491588999997</v>
       </c>
       <c r="BY25" s="1">
-        <v>22.849581</v>
+        <v>22.849581000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1480.100000</v>
+        <v>1480.1</v>
       </c>
       <c r="CA25" s="1">
-        <v>-892.912000</v>
+        <v>-892.91200000000003</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>82271.600851</v>
+        <v>82271.600850999996</v>
       </c>
       <c r="CD25" s="1">
-        <v>22.853222</v>
+        <v>22.853221999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1830.590000</v>
+        <v>1830.59</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1384.330000</v>
+        <v>-1384.33</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>82097.361738</v>
+        <v>82097.361738000007</v>
       </c>
       <c r="B26" s="1">
-        <v>22.804823</v>
+        <v>22.804822999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>908.755000</v>
+        <v>908.755</v>
       </c>
       <c r="D26" s="1">
-        <v>-202.670000</v>
+        <v>-202.67</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>82107.833277</v>
+        <v>82107.833276999998</v>
       </c>
       <c r="G26" s="1">
         <v>22.807731</v>
       </c>
       <c r="H26" s="1">
-        <v>926.508000</v>
+        <v>926.50800000000004</v>
       </c>
       <c r="I26" s="1">
-        <v>-172.149000</v>
+        <v>-172.149</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>82118.654990</v>
+        <v>82118.654989999995</v>
       </c>
       <c r="L26" s="1">
         <v>22.810737</v>
       </c>
       <c r="M26" s="1">
-        <v>950.508000</v>
+        <v>950.50800000000004</v>
       </c>
       <c r="N26" s="1">
-        <v>-121.943000</v>
+        <v>-121.943</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>82129.164721</v>
+        <v>82129.164720999994</v>
       </c>
       <c r="Q26" s="1">
-        <v>22.813657</v>
+        <v>22.813656999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>957.443000</v>
+        <v>957.44299999999998</v>
       </c>
       <c r="S26" s="1">
-        <v>-105.356000</v>
+        <v>-105.35599999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>82139.665523</v>
+        <v>82139.665523000003</v>
       </c>
       <c r="V26" s="1">
-        <v>22.816574</v>
+        <v>22.816573999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>964.239000</v>
+        <v>964.23900000000003</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.982300</v>
+        <v>-89.982299999999995</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>82150.567587</v>
+        <v>82150.567586999998</v>
       </c>
       <c r="AA26" s="1">
         <v>22.819602</v>
       </c>
       <c r="AB26" s="1">
-        <v>971.617000</v>
+        <v>971.61699999999996</v>
       </c>
       <c r="AC26" s="1">
-        <v>-78.005600</v>
+        <v>-78.005600000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>82161.002917</v>
+        <v>82161.002917000005</v>
       </c>
       <c r="AF26" s="1">
-        <v>22.822501</v>
+        <v>22.822500999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>976.505000</v>
+        <v>976.505</v>
       </c>
       <c r="AH26" s="1">
-        <v>-75.409200</v>
+        <v>-75.409199999999998</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>82171.580599</v>
+        <v>82171.580598999994</v>
       </c>
       <c r="AK26" s="1">
-        <v>22.825439</v>
+        <v>22.825438999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>983.761000</v>
+        <v>983.76099999999997</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.856000</v>
+        <v>-79.855999999999995</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>82182.185562</v>
+        <v>82182.185561999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>22.828385</v>
+        <v>22.828385000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>991.913000</v>
+        <v>991.91300000000001</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.116500</v>
+        <v>-91.116500000000002</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>82192.988606</v>
+        <v>82192.988605999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>22.831386</v>
+        <v>22.831385999999998</v>
       </c>
       <c r="AV26" s="1">
-        <v>1001.840000</v>
+        <v>1001.84</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.483000</v>
+        <v>-108.483</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>82204.140477</v>
+        <v>82204.140476999994</v>
       </c>
       <c r="AZ26" s="1">
-        <v>22.834483</v>
+        <v>22.834482999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1010.160000</v>
+        <v>1010.16</v>
       </c>
       <c r="BB26" s="1">
-        <v>-123.910000</v>
+        <v>-123.91</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>82214.846622</v>
+        <v>82214.846621999997</v>
       </c>
       <c r="BE26" s="1">
-        <v>22.837457</v>
+        <v>22.837457000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1048.920000</v>
+        <v>1048.92</v>
       </c>
       <c r="BG26" s="1">
-        <v>-194.846000</v>
+        <v>-194.846</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>82225.413889</v>
+        <v>82225.413889000003</v>
       </c>
       <c r="BJ26" s="1">
-        <v>22.840393</v>
+        <v>22.840392999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1115.820000</v>
+        <v>1115.82</v>
       </c>
       <c r="BL26" s="1">
-        <v>-309.530000</v>
+        <v>-309.52999999999997</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>82237.352594</v>
+        <v>82237.352593999996</v>
       </c>
       <c r="BO26" s="1">
         <v>22.843709</v>
       </c>
       <c r="BP26" s="1">
-        <v>1224.160000</v>
+        <v>1224.1600000000001</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-489.059000</v>
+        <v>-489.05900000000003</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>82248.003716</v>
+        <v>82248.003716000007</v>
       </c>
       <c r="BT26" s="1">
-        <v>22.846668</v>
+        <v>22.846668000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1345.300000</v>
+        <v>1345.3</v>
       </c>
       <c r="BV26" s="1">
-        <v>-685.339000</v>
+        <v>-685.33900000000006</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>82258.917652</v>
+        <v>82258.917652000004</v>
       </c>
       <c r="BY26" s="1">
-        <v>22.849699</v>
+        <v>22.849699000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1480.320000</v>
+        <v>1480.32</v>
       </c>
       <c r="CA26" s="1">
-        <v>-892.868000</v>
+        <v>-892.86800000000005</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>82272.152899</v>
+        <v>82272.152898999993</v>
       </c>
       <c r="CD26" s="1">
-        <v>22.853376</v>
+        <v>22.853376000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1830.790000</v>
+        <v>1830.79</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1385.080000</v>
+        <v>-1385.08</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>